--- a/tmp/歴代会計比較.xlsx
+++ b/tmp/歴代会計比較.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\github\neighborhood\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04B3FBC-DCB0-45C1-BC62-2413A7421F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C160D68-2BAE-4187-98BA-C637790C7AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{91722BC7-0123-42BB-87D5-AEEE062398CE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{91722BC7-0123-42BB-87D5-AEEE062398CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId3"/>
+    <sheet name="20220327" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="82">
   <si>
     <t>平成27年</t>
     <rPh sb="0" eb="2">
@@ -771,6 +771,119 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>大竹　哲朗</t>
+    <rPh sb="0" eb="2">
+      <t>オオタケ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テツロウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>岡　松夫</t>
+    <rPh sb="0" eb="1">
+      <t>オカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>マツオ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>成島　隆三</t>
+    <rPh sb="0" eb="2">
+      <t>ナルシマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>リュウゾウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>上甲震太郎</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タロウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>加藤　矢</t>
+    <rPh sb="0" eb="2">
+      <t>カトウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヤ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>上中　敏宏</t>
+    <rPh sb="0" eb="2">
+      <t>カミナカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トシヒロ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>糸井　登</t>
+    <rPh sb="0" eb="2">
+      <t>イトイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ノボル</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>鈴木　孝夫</t>
+    <rPh sb="0" eb="2">
+      <t>スズキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タカオ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>五味　三郎</t>
+    <rPh sb="0" eb="2">
+      <t>ゴミ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サブロウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>米井　廣実</t>
+    <rPh sb="0" eb="2">
+      <t>ヨネイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒロザネ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>羽鳥　英俊</t>
+    <rPh sb="0" eb="2">
+      <t>ハトリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒデトシ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
 </sst>
 </file>
 
@@ -780,7 +893,7 @@
     <numFmt numFmtId="176" formatCode="#,##0;&quot;△ &quot;#,##0"/>
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -825,6 +938,25 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐ明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -834,7 +966,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -909,16 +1041,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -970,10 +1151,26 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="2" xr:uid="{2F6B840B-A170-49AF-A7FC-6C5E11DDE3C2}"/>
   </cellStyles>
   <dxfs count="13">
     <dxf>
@@ -7813,7 +8010,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$A$2</c:f>
+              <c:f>'20220327'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7848,7 +8045,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$B$1:$Y$1</c:f>
+              <c:f>'20220327'!$B$1:$Y$1</c:f>
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
@@ -7928,7 +8125,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$B$2:$Y$2</c:f>
+              <c:f>'20220327'!$B$2:$Y$2</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="24"/>
@@ -8001,7 +8198,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$A$3</c:f>
+              <c:f>'20220327'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8036,7 +8233,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$B$1:$Y$1</c:f>
+              <c:f>'20220327'!$B$1:$Y$1</c:f>
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
@@ -8116,7 +8313,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$B$3:$Y$3</c:f>
+              <c:f>'20220327'!$B$3:$Y$3</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="24"/>
@@ -8189,7 +8386,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$A$4</c:f>
+              <c:f>'20220327'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8224,7 +8421,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$B$1:$Y$1</c:f>
+              <c:f>'20220327'!$B$1:$Y$1</c:f>
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
@@ -8304,7 +8501,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$B$4:$Y$4</c:f>
+              <c:f>'20220327'!$B$4:$Y$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="24"/>
@@ -8377,7 +8574,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$A$5</c:f>
+              <c:f>'20220327'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8412,7 +8609,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$B$1:$Y$1</c:f>
+              <c:f>'20220327'!$B$1:$Y$1</c:f>
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
@@ -8492,7 +8689,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$B$5:$Y$5</c:f>
+              <c:f>'20220327'!$B$5:$Y$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="24"/>
@@ -8565,7 +8762,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$A$6</c:f>
+              <c:f>'20220327'!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8600,7 +8797,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$B$1:$Y$1</c:f>
+              <c:f>'20220327'!$B$1:$Y$1</c:f>
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
@@ -8680,7 +8877,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$B$6:$Y$6</c:f>
+              <c:f>'20220327'!$B$6:$Y$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="24"/>
@@ -8753,7 +8950,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$A$7</c:f>
+              <c:f>'20220327'!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8788,7 +8985,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$B$1:$Y$1</c:f>
+              <c:f>'20220327'!$B$1:$Y$1</c:f>
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
@@ -8868,7 +9065,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$B$7:$Y$7</c:f>
+              <c:f>'20220327'!$B$7:$Y$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -9196,7 +9393,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$A$12</c:f>
+              <c:f>'20220327'!$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9231,7 +9428,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$B$11:$Y$11</c:f>
+              <c:f>'20220327'!$B$11:$Y$11</c:f>
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
@@ -9311,7 +9508,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$B$12:$Y$12</c:f>
+              <c:f>'20220327'!$B$12:$Y$12</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="24"/>
@@ -9381,7 +9578,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$A$13</c:f>
+              <c:f>'20220327'!$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9416,7 +9613,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$B$11:$Y$11</c:f>
+              <c:f>'20220327'!$B$11:$Y$11</c:f>
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
@@ -9496,7 +9693,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$B$13:$Y$13</c:f>
+              <c:f>'20220327'!$B$13:$Y$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="24"/>
@@ -9566,7 +9763,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$A$14</c:f>
+              <c:f>'20220327'!$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9601,7 +9798,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$B$11:$Y$11</c:f>
+              <c:f>'20220327'!$B$11:$Y$11</c:f>
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
@@ -9681,7 +9878,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$B$14:$Y$14</c:f>
+              <c:f>'20220327'!$B$14:$Y$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="24"/>
@@ -9751,7 +9948,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$A$15</c:f>
+              <c:f>'20220327'!$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9786,7 +9983,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$B$11:$Y$11</c:f>
+              <c:f>'20220327'!$B$11:$Y$11</c:f>
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
@@ -9866,7 +10063,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$B$15:$Y$15</c:f>
+              <c:f>'20220327'!$B$15:$Y$15</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="24"/>
@@ -9936,7 +10133,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$A$16</c:f>
+              <c:f>'20220327'!$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9971,7 +10168,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$B$11:$Y$11</c:f>
+              <c:f>'20220327'!$B$11:$Y$11</c:f>
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
@@ -10051,7 +10248,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$B$16:$Y$16</c:f>
+              <c:f>'20220327'!$B$16:$Y$16</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="24"/>
@@ -10121,7 +10318,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$A$17</c:f>
+              <c:f>'20220327'!$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10156,7 +10353,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$B$11:$Y$11</c:f>
+              <c:f>'20220327'!$B$11:$Y$11</c:f>
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
@@ -10236,7 +10433,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$B$17:$Y$17</c:f>
+              <c:f>'20220327'!$B$17:$Y$17</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="24"/>
@@ -10303,7 +10500,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$A$18</c:f>
+              <c:f>'20220327'!$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10344,7 +10541,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$B$11:$Y$11</c:f>
+              <c:f>'20220327'!$B$11:$Y$11</c:f>
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
@@ -10424,7 +10621,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$B$18:$Y$18</c:f>
+              <c:f>'20220327'!$B$18:$Y$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="24"/>
@@ -10470,7 +10667,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$A$19</c:f>
+              <c:f>'20220327'!$A$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10511,7 +10708,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$B$11:$Y$11</c:f>
+              <c:f>'20220327'!$B$11:$Y$11</c:f>
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
@@ -10591,7 +10788,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$B$19:$Y$19</c:f>
+              <c:f>'20220327'!$B$19:$Y$19</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="24"/>
@@ -10616,7 +10813,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$A$20</c:f>
+              <c:f>'20220327'!$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10657,7 +10854,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$B$11:$Y$11</c:f>
+              <c:f>'20220327'!$B$11:$Y$11</c:f>
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
@@ -10737,7 +10934,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$B$20:$Y$20</c:f>
+              <c:f>'20220327'!$B$20:$Y$20</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="24"/>
@@ -10759,7 +10956,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$A$21</c:f>
+              <c:f>'20220327'!$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10800,7 +10997,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$B$11:$Y$11</c:f>
+              <c:f>'20220327'!$B$11:$Y$11</c:f>
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
@@ -10880,7 +11077,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$B$21:$Y$21</c:f>
+              <c:f>'20220327'!$B$21:$Y$21</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="24"/>
@@ -11200,7 +11397,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$A$27</c:f>
+              <c:f>'20220327'!$A$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11235,7 +11432,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$B$26:$Y$26</c:f>
+              <c:f>'20220327'!$B$26:$Y$26</c:f>
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
@@ -11315,7 +11512,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$B$27:$Y$27</c:f>
+              <c:f>'20220327'!$B$27:$Y$27</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="24"/>
@@ -11388,7 +11585,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$A$28</c:f>
+              <c:f>'20220327'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11423,7 +11620,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$B$26:$Y$26</c:f>
+              <c:f>'20220327'!$B$26:$Y$26</c:f>
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
@@ -11503,7 +11700,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$B$28:$Y$28</c:f>
+              <c:f>'20220327'!$B$28:$Y$28</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="24"/>
@@ -11576,7 +11773,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$A$29</c:f>
+              <c:f>'20220327'!$A$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11611,7 +11808,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$B$26:$Y$26</c:f>
+              <c:f>'20220327'!$B$26:$Y$26</c:f>
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
@@ -11691,7 +11888,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$B$29:$Y$29</c:f>
+              <c:f>'20220327'!$B$29:$Y$29</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="24"/>
@@ -11764,7 +11961,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$A$30</c:f>
+              <c:f>'20220327'!$A$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11799,7 +11996,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$B$26:$Y$26</c:f>
+              <c:f>'20220327'!$B$26:$Y$26</c:f>
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
@@ -11879,7 +12076,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$B$30:$Y$30</c:f>
+              <c:f>'20220327'!$B$30:$Y$30</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="24"/>
@@ -11952,7 +12149,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$A$31</c:f>
+              <c:f>'20220327'!$A$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11987,7 +12184,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$B$26:$Y$26</c:f>
+              <c:f>'20220327'!$B$26:$Y$26</c:f>
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
@@ -12067,7 +12264,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$B$31:$Y$31</c:f>
+              <c:f>'20220327'!$B$31:$Y$31</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="24"/>
@@ -12140,7 +12337,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$A$32</c:f>
+              <c:f>'20220327'!$A$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12175,7 +12372,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$B$26:$Y$26</c:f>
+              <c:f>'20220327'!$B$26:$Y$26</c:f>
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
@@ -12255,7 +12452,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$B$32:$Y$32</c:f>
+              <c:f>'20220327'!$B$32:$Y$32</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="24"/>
@@ -12284,10 +12481,10 @@
                   <c:v>140000</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="#,##0">
-                  <c:v>87980</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>143730</c:v>
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="#,##0">
+                  <c:v>145000</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="#,##0">
                   <c:v>160450</c:v>
@@ -12328,7 +12525,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$A$33</c:f>
+              <c:f>'20220327'!$A$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12369,7 +12566,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$B$26:$Y$26</c:f>
+              <c:f>'20220327'!$B$26:$Y$26</c:f>
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
@@ -12449,7 +12646,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$B$33:$Y$33</c:f>
+              <c:f>'20220327'!$B$33:$Y$33</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="24"/>
@@ -12478,10 +12675,10 @@
                   <c:v>103850</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="#,##0">
-                  <c:v>145000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>145000</c:v>
+                  <c:v>87980</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="#,##0">
+                  <c:v>143730</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="#,##0">
                   <c:v>150000</c:v>
@@ -12522,7 +12719,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$A$34</c:f>
+              <c:f>'20220327'!$A$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12563,7 +12760,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$B$26:$Y$26</c:f>
+              <c:f>'20220327'!$B$26:$Y$26</c:f>
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
@@ -12643,7 +12840,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$B$34:$Y$34</c:f>
+              <c:f>'20220327'!$B$34:$Y$34</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="24"/>
@@ -12672,10 +12869,10 @@
                   <c:v>76750</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="#,##0">
-                  <c:v>6298</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>463980</c:v>
+                  <c:v>97920</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="#,##0">
+                  <c:v>320410</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="#,##0">
                   <c:v>165899</c:v>
@@ -12716,7 +12913,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$A$35</c:f>
+              <c:f>'20220327'!$A$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12757,7 +12954,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$B$26:$Y$26</c:f>
+              <c:f>'20220327'!$B$26:$Y$26</c:f>
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
@@ -12837,7 +13034,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$B$35:$Y$35</c:f>
+              <c:f>'20220327'!$B$35:$Y$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="24"/>
@@ -12866,10 +13063,10 @@
                   <c:v>45500</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="#,##0">
-                  <c:v>97920</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>320410</c:v>
+                  <c:v>57000</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="#,##0">
+                  <c:v>64800</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="#,##0">
                   <c:v>78000</c:v>
@@ -12910,7 +13107,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$A$36</c:f>
+              <c:f>'20220327'!$A$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12951,7 +13148,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$B$26:$Y$26</c:f>
+              <c:f>'20220327'!$B$26:$Y$26</c:f>
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
@@ -13031,7 +13228,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$B$36:$Y$36</c:f>
+              <c:f>'20220327'!$B$36:$Y$36</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="24"/>
@@ -13060,10 +13257,10 @@
                   <c:v>28893</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="#,##0">
-                  <c:v>26730</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>46313</c:v>
+                  <c:v>13219</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="#,##0">
+                  <c:v>23755</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="#,##0">
                   <c:v>13730</c:v>
@@ -13104,7 +13301,7 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$A$37</c:f>
+              <c:f>'20220327'!$A$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13145,7 +13342,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$B$26:$Y$26</c:f>
+              <c:f>'20220327'!$B$26:$Y$26</c:f>
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
@@ -13225,7 +13422,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$B$37:$Y$37</c:f>
+              <c:f>'20220327'!$B$37:$Y$37</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="24"/>
@@ -13254,10 +13451,10 @@
                   <c:v>4189</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="#,##0">
-                  <c:v>13219</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>23755</c:v>
+                  <c:v>6298</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="#,##0">
+                  <c:v>463980</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="#,##0">
                   <c:v>36814</c:v>
@@ -13298,7 +13495,7 @@
           <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$A$38</c:f>
+              <c:f>'20220327'!$A$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13339,7 +13536,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$B$26:$Y$26</c:f>
+              <c:f>'20220327'!$B$26:$Y$26</c:f>
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
@@ -13419,7 +13616,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$B$38:$Y$38</c:f>
+              <c:f>'20220327'!$B$38:$Y$38</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="24"/>
@@ -13448,10 +13645,10 @@
                   <c:v>25057</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="#,##0">
-                  <c:v>57000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>64800</c:v>
+                  <c:v>26730</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="#,##0">
+                  <c:v>46313</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="#,##0">
                   <c:v>70000</c:v>
@@ -13492,7 +13689,7 @@
           <c:order val="12"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$A$39</c:f>
+              <c:f>'20220327'!$A$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13536,7 +13733,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$B$26:$Y$26</c:f>
+              <c:f>'20220327'!$B$26:$Y$26</c:f>
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
@@ -13616,7 +13813,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$B$39:$Y$39</c:f>
+              <c:f>'20220327'!$B$39:$Y$39</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="24"/>
@@ -13689,7 +13886,7 @@
           <c:order val="13"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$A$40</c:f>
+              <c:f>'20220327'!$A$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13733,7 +13930,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$B$26:$Y$26</c:f>
+              <c:f>'20220327'!$B$26:$Y$26</c:f>
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
@@ -13813,7 +14010,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$B$40:$Y$40</c:f>
+              <c:f>'20220327'!$B$40:$Y$40</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="24"/>
@@ -13880,7 +14077,7 @@
           <c:order val="14"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$A$41</c:f>
+              <c:f>'20220327'!$A$41</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13924,7 +14121,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$B$26:$Y$26</c:f>
+              <c:f>'20220327'!$B$26:$Y$26</c:f>
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
@@ -14004,7 +14201,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$B$41:$Y$41</c:f>
+              <c:f>'20220327'!$B$41:$Y$41</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="24"/>
@@ -14029,7 +14226,7 @@
           <c:order val="15"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$A$42</c:f>
+              <c:f>'20220327'!$A$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14073,7 +14270,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$B$26:$Y$26</c:f>
+              <c:f>'20220327'!$B$26:$Y$26</c:f>
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
@@ -14153,7 +14350,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$B$42:$Y$42</c:f>
+              <c:f>'20220327'!$B$42:$Y$42</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="24"/>
@@ -18234,18 +18431,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3A9483D-CB65-47B5-B1B3-0EF3888FC64F}">
   <dimension ref="A1:AG49"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X31" sqref="X31"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="25" width="10.69921875" customWidth="1"/>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="25" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>51</v>
       </c>
@@ -18319,7 +18516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -18384,7 +18581,7 @@
         <v>3254925</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -18473,7 +18670,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -18538,7 +18735,7 @@
         <v>1408199</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -18603,7 +18800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -18668,7 +18865,7 @@
         <v>57209</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -18690,7 +18887,7 @@
       </c>
       <c r="Y7" s="4"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -18773,7 +18970,7 @@
         <v>6117133</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -18790,7 +18987,7 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
       <c r="B10" s="10">
         <v>1997</v>
       </c>
@@ -18864,7 +19061,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>51</v>
       </c>
@@ -18938,7 +19135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -19001,7 +19198,7 @@
         <v>108780</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -19064,7 +19261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -19127,7 +19324,7 @@
         <v>74279</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -19190,7 +19387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -19253,7 +19450,7 @@
         <v>1225140</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -19314,7 +19511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -19361,7 +19558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -19394,7 +19591,7 @@
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -19425,7 +19622,7 @@
       </c>
       <c r="Y20" s="4"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -19456,7 +19653,7 @@
       </c>
       <c r="Y21" s="4"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -19489,7 +19686,7 @@
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.4">
       <c r="B23" s="8">
         <f>SUM(B12:B19)</f>
         <v>1058578</v>
@@ -19569,7 +19766,7 @@
         <v>1408199</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.4">
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -19586,7 +19783,7 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.4">
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -19603,7 +19800,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>51</v>
       </c>
@@ -19677,7 +19874,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -19742,7 +19939,7 @@
         <v>844000</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -19807,7 +20004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -19872,7 +20069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -19937,7 +20134,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -20002,7 +20199,7 @@
         <v>123420</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -20067,7 +20264,7 @@
         <v>145000</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -20133,7 +20330,7 @@
         <v>396310</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -20198,7 +20395,7 @@
         <v>335650</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>20</v>
       </c>
@@ -20263,7 +20460,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -20329,7 +20526,7 @@
         <v>63520</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>22</v>
       </c>
@@ -20394,7 +20591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>23</v>
       </c>
@@ -20459,7 +20656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>24</v>
       </c>
@@ -20524,7 +20721,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -20585,7 +20782,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>25</v>
       </c>
@@ -20622,7 +20819,7 @@
         <v>389186</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -20655,7 +20852,7 @@
       <c r="X42" s="4"/>
       <c r="Y42" s="4"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>27</v>
       </c>
@@ -20738,7 +20935,7 @@
         <v>2667086</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -20821,7 +21018,7 @@
         <v>3450047</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>69</v>
       </c>
@@ -20919,7 +21116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.4">
       <c r="B46" s="8"/>
       <c r="C46" s="8" t="s">
         <v>58</v>
@@ -20953,7 +21150,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.4">
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
@@ -20972,10 +21169,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.4">
       <c r="V48" s="7"/>
     </row>
-    <row r="49" spans="12:13" x14ac:dyDescent="0.45">
+    <row r="49" spans="12:13" x14ac:dyDescent="0.4">
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
     </row>
@@ -21322,11 +21519,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4620E6E1-FC7A-44A7-80CD-547253E85769}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21338,18 +21535,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E95C0B-FB68-4970-975E-8C4E1CD58C7F}">
   <dimension ref="A1:AG49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A10" sqref="A10:Y23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="25" width="10.69921875" customWidth="1"/>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="25" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>51</v>
       </c>
@@ -21423,7 +21620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -21488,7 +21685,7 @@
         <v>3254925</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -21577,7 +21774,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -21642,7 +21839,7 @@
         <v>1408199</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -21707,7 +21904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -21772,7 +21969,7 @@
         <v>57209</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -21794,7 +21991,7 @@
       </c>
       <c r="Y7" s="4"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -21877,7 +22074,7 @@
         <v>6117133</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -21894,7 +22091,7 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
       <c r="B10" s="10">
         <v>1997</v>
       </c>
@@ -21968,7 +22165,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>51</v>
       </c>
@@ -22042,7 +22239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -22105,7 +22302,7 @@
         <v>108780</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -22168,7 +22365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -22231,7 +22428,7 @@
         <v>74279</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -22294,7 +22491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -22357,7 +22554,7 @@
         <v>1225140</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -22418,7 +22615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -22465,7 +22662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -22498,7 +22695,7 @@
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -22529,7 +22726,7 @@
       </c>
       <c r="Y20" s="4"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -22560,7 +22757,7 @@
       </c>
       <c r="Y21" s="4"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -22593,7 +22790,7 @@
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.4">
       <c r="B23" s="8">
         <f>SUM(B12:B19)</f>
         <v>1058578</v>
@@ -22673,7 +22870,7 @@
         <v>1408199</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.4">
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -22690,24 +22887,81 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="B25" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="I25" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="J25" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="K25" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="L25" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="M25" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="N25" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="O25" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="P25" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q25" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="R25" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="S25" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="T25" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="U25" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="V25" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="W25" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="X25" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y25" s="17" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>51</v>
       </c>
@@ -22781,7 +23035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -22846,7 +23100,7 @@
         <v>1233186</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -22911,7 +23165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -22976,7 +23230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -23041,7 +23295,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -23106,7 +23360,7 @@
         <v>123420</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -23138,12 +23392,12 @@
       <c r="M32" s="5">
         <v>140000</v>
       </c>
-      <c r="N32" s="4"/>
+      <c r="N32" s="11"/>
       <c r="O32" s="11">
-        <v>87980</v>
-      </c>
-      <c r="P32" s="5">
-        <v>143730</v>
+        <v>145000</v>
+      </c>
+      <c r="P32" s="11">
+        <v>145000</v>
       </c>
       <c r="Q32" s="4"/>
       <c r="R32" s="11">
@@ -23171,7 +23425,7 @@
         <v>145000</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -23204,12 +23458,12 @@
       <c r="M33" s="5">
         <v>103850</v>
       </c>
-      <c r="N33" s="4"/>
+      <c r="N33" s="11"/>
       <c r="O33" s="11">
-        <v>145000</v>
-      </c>
-      <c r="P33" s="5">
-        <v>145000</v>
+        <v>87980</v>
+      </c>
+      <c r="P33" s="11">
+        <v>143730</v>
       </c>
       <c r="Q33" s="4"/>
       <c r="R33" s="11">
@@ -23237,7 +23491,7 @@
         <v>396310</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -23269,12 +23523,12 @@
       <c r="M34" s="5">
         <v>76750</v>
       </c>
-      <c r="N34" s="4"/>
+      <c r="N34" s="11"/>
       <c r="O34" s="11">
-        <v>6298</v>
-      </c>
-      <c r="P34" s="5">
-        <v>463980</v>
+        <v>97920</v>
+      </c>
+      <c r="P34" s="11">
+        <v>320410</v>
       </c>
       <c r="Q34" s="4"/>
       <c r="R34" s="11">
@@ -23302,7 +23556,7 @@
         <v>335650</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>20</v>
       </c>
@@ -23334,12 +23588,12 @@
       <c r="M35" s="5">
         <v>45500</v>
       </c>
-      <c r="N35" s="4"/>
+      <c r="N35" s="11"/>
       <c r="O35" s="11">
-        <v>97920</v>
-      </c>
-      <c r="P35" s="5">
-        <v>320410</v>
+        <v>57000</v>
+      </c>
+      <c r="P35" s="11">
+        <v>64800</v>
       </c>
       <c r="Q35" s="4"/>
       <c r="R35" s="11">
@@ -23367,7 +23621,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -23400,12 +23654,12 @@
       <c r="M36" s="5">
         <v>28893</v>
       </c>
-      <c r="N36" s="4"/>
+      <c r="N36" s="11"/>
       <c r="O36" s="11">
-        <v>26730</v>
-      </c>
-      <c r="P36" s="5">
-        <v>46313</v>
+        <v>13219</v>
+      </c>
+      <c r="P36" s="11">
+        <v>23755</v>
       </c>
       <c r="Q36" s="4"/>
       <c r="R36" s="13">
@@ -23433,7 +23687,7 @@
         <v>63520</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>22</v>
       </c>
@@ -23465,12 +23719,12 @@
       <c r="M37" s="5">
         <v>4189</v>
       </c>
-      <c r="N37" s="4"/>
+      <c r="N37" s="11"/>
       <c r="O37" s="11">
-        <v>13219</v>
-      </c>
-      <c r="P37" s="5">
-        <v>23755</v>
+        <v>6298</v>
+      </c>
+      <c r="P37" s="11">
+        <v>463980</v>
       </c>
       <c r="Q37" s="4"/>
       <c r="R37" s="11">
@@ -23498,7 +23752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>23</v>
       </c>
@@ -23530,12 +23784,12 @@
       <c r="M38" s="5">
         <v>25057</v>
       </c>
-      <c r="N38" s="4"/>
+      <c r="N38" s="11"/>
       <c r="O38" s="11">
-        <v>57000</v>
-      </c>
-      <c r="P38" s="5">
-        <v>64800</v>
+        <v>26730</v>
+      </c>
+      <c r="P38" s="11">
+        <v>46313</v>
       </c>
       <c r="Q38" s="4"/>
       <c r="R38" s="11">
@@ -23563,7 +23817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>24</v>
       </c>
@@ -23628,7 +23882,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -23689,7 +23943,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>25</v>
       </c>
@@ -23722,7 +23976,7 @@
       <c r="X41" s="4"/>
       <c r="Y41" s="4"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -23755,7 +24009,7 @@
       <c r="X42" s="4"/>
       <c r="Y42" s="4"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>27</v>
       </c>
@@ -23838,7 +24092,7 @@
         <v>2667086</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -23921,7 +24175,7 @@
         <v>3450047</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>69</v>
       </c>
@@ -24019,7 +24273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.4">
       <c r="B46" s="8"/>
       <c r="C46" s="8" t="s">
         <v>58</v>
@@ -24053,7 +24307,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.4">
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
@@ -24072,17 +24326,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.4">
       <c r="V48" s="7"/>
     </row>
-    <row r="49" spans="12:13" x14ac:dyDescent="0.45">
+    <row r="49" spans="12:13" x14ac:dyDescent="0.4">
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="T2:Y7">
-    <cfRule type="dataBar" priority="10">
+    <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -24096,7 +24350,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T28:Y40 T27:W27 Y27 T41:W42 Y41:Y42">
-    <cfRule type="dataBar" priority="11">
+    <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -24110,7 +24364,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:Y7">
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -24124,7 +24378,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12:Y22 V48">
-    <cfRule type="dataBar" priority="8">
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -24138,12 +24392,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23:Y23">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="notEqual">
+    <cfRule type="cellIs" dxfId="4" priority="10" operator="notEqual">
       <formula>L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:J5">
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -24157,7 +24411,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:J6">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -24171,7 +24425,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:Y7">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -24185,27 +24439,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:K23">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="notEqual">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="notEqual">
       <formula>B$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44 G44:H44 K44:X44">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="notEqual">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="notEqual">
       <formula>C$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44:J44">
-    <cfRule type="cellIs" dxfId="4" priority="12" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="15" operator="notEqual">
       <formula>K$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44:F44">
-    <cfRule type="cellIs" dxfId="3" priority="13" operator="notEqual">
+    <cfRule type="cellIs" dxfId="0" priority="16" operator="notEqual">
       <formula>G$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T27:Y42">
-    <cfRule type="dataBar" priority="14">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -24218,8 +24472,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K27:Y42">
-    <cfRule type="dataBar" priority="15">
+  <conditionalFormatting sqref="K27:Y31 K39:Y42 P32:Y38 K32:N38">
+    <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -24233,7 +24487,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:J42">
-    <cfRule type="dataBar" priority="16">
+    <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -24246,8 +24500,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:Y42">
-    <cfRule type="dataBar" priority="17">
+  <conditionalFormatting sqref="B27:Y31 B39:Y42 P32:Y38 B32:N38">
+    <cfRule type="dataBar" priority="20">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -24261,6 +24515,48 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:Y22">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{58A86A78-F163-4F83-918A-E42A12845305}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O32:O38">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7CA78F61-21EB-4AF5-96FE-7AA77CA819AA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O32:O38">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{822DADB4-DE2C-4A7B-9798-B0955863887C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27:Y39">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -24269,7 +24565,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{58A86A78-F163-4F83-918A-E42A12845305}</x14:id>
+          <x14:id>{27D42F92-F53E-4165-986E-348777EAF2A8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -24377,7 +24673,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K27:Y42</xm:sqref>
+          <xm:sqref>K27:Y31 K39:Y42 P32:Y38 K32:N38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A53F9E0C-72CA-404F-B2A8-62221269BB4F}">
@@ -24399,7 +24695,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B27:Y42</xm:sqref>
+          <xm:sqref>B27:Y31 B39:Y42 P32:Y38 B32:N38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{58A86A78-F163-4F83-918A-E42A12845305}">
@@ -24412,6 +24708,39 @@
           </x14:cfRule>
           <xm:sqref>B12:Y22</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7CA78F61-21EB-4AF5-96FE-7AA77CA819AA}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>O32:O38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{822DADB4-DE2C-4A7B-9798-B0955863887C}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>O32:O38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{27D42F92-F53E-4165-986E-348777EAF2A8}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G27:Y39</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -24422,18 +24751,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A0E9AA-3BF1-4A69-8E0F-E60A490272CF}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="7" max="7" width="9.69921875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.3984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.69921875" customWidth="1"/>
+    <col min="7" max="7" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
@@ -24450,7 +24779,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -24477,7 +24806,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -24507,7 +24836,7 @@
         <v>108780</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -24541,7 +24870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -24571,7 +24900,7 @@
         <v>74279</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -24594,7 +24923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -24617,7 +24946,7 @@
         <v>1225140</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -24640,7 +24969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -24660,7 +24989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -24679,7 +25008,7 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -24697,7 +25026,7 @@
       </c>
       <c r="O11" s="4"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -24718,7 +25047,7 @@
       </c>
       <c r="O12" s="4"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -24737,7 +25066,7 @@
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -24759,7 +25088,7 @@
         <v>1408199</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -24773,21 +25102,21 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>52</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -24800,7 +25129,7 @@
         <v>2667086</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -24813,7 +25142,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>69</v>
       </c>
@@ -24843,7 +25172,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="notEqual">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="notEqual">
       <formula>C$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24862,7 +25191,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="notEqual">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="notEqual">
       <formula>O$4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24881,7 +25210,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14">
-    <cfRule type="cellIs" dxfId="0" priority="72" operator="notEqual">
+    <cfRule type="cellIs" dxfId="5" priority="72" operator="notEqual">
       <formula>E$3</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tmp/歴代会計比較.xlsx
+++ b/tmp/歴代会計比較.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\github\neighborhood\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C160D68-2BAE-4187-98BA-C637790C7AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C46B82-9C0E-42A2-8E66-85CA21417104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{91722BC7-0123-42BB-87D5-AEEE062398CE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29070" windowHeight="16470" activeTab="2" xr2:uid="{91722BC7-0123-42BB-87D5-AEEE062398CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="84">
   <si>
     <t>平成27年</t>
     <rPh sb="0" eb="2">
@@ -884,6 +884,26 @@
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
+  <si>
+    <t>令和3年</t>
+    <rPh sb="0" eb="2">
+      <t>レイワ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>伊藤　晋朗</t>
+    <rPh sb="0" eb="2">
+      <t>イトウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シンロウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -966,7 +986,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1087,6 +1107,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1099,7 +1130,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1164,6 +1195,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8045,9 +8085,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'20220327'!$B$1:$Y$1</c:f>
+              <c:f>'20220327'!$B$1:$Z$1</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>平成９年</c:v>
                 </c:pt>
@@ -8119,16 +8159,19 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>令和2年</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>令和3年</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20220327'!$B$2:$Y$2</c:f>
+              <c:f>'20220327'!$B$2:$Z$2</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>2327753</c:v>
                 </c:pt>
@@ -8182,6 +8225,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>3254925</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3450047</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8233,9 +8279,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'20220327'!$B$1:$Y$1</c:f>
+              <c:f>'20220327'!$B$1:$Z$1</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>平成９年</c:v>
                 </c:pt>
@@ -8307,16 +8353,19 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>令和2年</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>令和3年</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20220327'!$B$3:$Y$3</c:f>
+              <c:f>'20220327'!$B$3:$Z$3</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1441600</c:v>
                 </c:pt>
@@ -8370,6 +8419,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>1396800</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1252600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8421,9 +8473,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'20220327'!$B$1:$Y$1</c:f>
+              <c:f>'20220327'!$B$1:$Z$1</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>平成９年</c:v>
                 </c:pt>
@@ -8495,16 +8547,19 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>令和2年</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>令和3年</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20220327'!$B$4:$Y$4</c:f>
+              <c:f>'20220327'!$B$4:$Z$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1058578</c:v>
                 </c:pt>
@@ -8558,6 +8613,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>1408199</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>739818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8609,9 +8667,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'20220327'!$B$1:$Y$1</c:f>
+              <c:f>'20220327'!$B$1:$Z$1</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>平成９年</c:v>
                 </c:pt>
@@ -8683,16 +8741,19 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>令和2年</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>令和3年</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20220327'!$B$5:$Y$5</c:f>
+              <c:f>'20220327'!$B$5:$Z$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>394000</c:v>
                 </c:pt>
@@ -8745,6 +8806,9 @@
                   <c:v>321000</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -8797,9 +8861,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'20220327'!$B$1:$Y$1</c:f>
+              <c:f>'20220327'!$B$1:$Z$1</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>平成９年</c:v>
                 </c:pt>
@@ -8871,16 +8935,19 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>令和2年</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>令和3年</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20220327'!$B$6:$Y$6</c:f>
+              <c:f>'20220327'!$B$6:$Z$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>108010</c:v>
                 </c:pt>
@@ -8934,6 +9001,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>57209</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>244534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8985,9 +9055,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'20220327'!$B$1:$Y$1</c:f>
+              <c:f>'20220327'!$B$1:$Z$1</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>平成９年</c:v>
                 </c:pt>
@@ -9059,16 +9129,19 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>令和2年</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>令和3年</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20220327'!$B$7:$Y$7</c:f>
+              <c:f>'20220327'!$B$7:$Z$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="22" formatCode="#,##0_);[Red]\(#,##0\)">
                   <c:v>351499</c:v>
                 </c:pt>
@@ -9428,7 +9501,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'20220327'!$B$11:$Y$11</c:f>
+              <c:f>'20220327'!$B$11:$Z$11</c:f>
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
@@ -9508,10 +9581,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20220327'!$B$12:$Y$12</c:f>
+              <c:f>'20220327'!$B$12:$Z$12</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>96640</c:v>
                 </c:pt>
@@ -9561,6 +9634,9 @@
                   <c:v>112850</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>108780</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>108780</c:v>
                 </c:pt>
               </c:numCache>
@@ -9613,7 +9689,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'20220327'!$B$11:$Y$11</c:f>
+              <c:f>'20220327'!$B$11:$Z$11</c:f>
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
@@ -9693,10 +9769,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20220327'!$B$13:$Y$13</c:f>
+              <c:f>'20220327'!$B$13:$Z$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>360800</c:v>
                 </c:pt>
@@ -9746,6 +9822,9 @@
                   <c:v>308000</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -9798,7 +9877,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'20220327'!$B$11:$Y$11</c:f>
+              <c:f>'20220327'!$B$11:$Z$11</c:f>
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
@@ -9878,10 +9957,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20220327'!$B$14:$Y$14</c:f>
+              <c:f>'20220327'!$B$14:$Z$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>158346</c:v>
                 </c:pt>
@@ -9932,6 +10011,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>74279</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>67622</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9983,7 +10065,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'20220327'!$B$11:$Y$11</c:f>
+              <c:f>'20220327'!$B$11:$Z$11</c:f>
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
@@ -10063,10 +10145,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20220327'!$B$15:$Y$15</c:f>
+              <c:f>'20220327'!$B$15:$Z$15</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>2500</c:v>
                 </c:pt>
@@ -10116,6 +10198,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -10168,7 +10253,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'20220327'!$B$11:$Y$11</c:f>
+              <c:f>'20220327'!$B$11:$Z$11</c:f>
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
@@ -10248,10 +10333,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20220327'!$B$16:$Y$16</c:f>
+              <c:f>'20220327'!$B$16:$Z$16</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>434877</c:v>
                 </c:pt>
@@ -10302,6 +10387,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>1225140</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>563416</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10353,7 +10441,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'20220327'!$B$11:$Y$11</c:f>
+              <c:f>'20220327'!$B$11:$Z$11</c:f>
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
@@ -10433,10 +10521,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20220327'!$B$17:$Y$17</c:f>
+              <c:f>'20220327'!$B$17:$Z$17</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>5415</c:v>
                 </c:pt>
@@ -10483,6 +10571,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -10541,7 +10632,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'20220327'!$B$11:$Y$11</c:f>
+              <c:f>'20220327'!$B$11:$Z$11</c:f>
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
@@ -10621,10 +10712,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20220327'!$B$18:$Y$18</c:f>
+              <c:f>'20220327'!$B$18:$Z$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="9">
                   <c:v>23600</c:v>
                 </c:pt>
@@ -10650,6 +10741,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -10708,7 +10802,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'20220327'!$B$11:$Y$11</c:f>
+              <c:f>'20220327'!$B$11:$Z$11</c:f>
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
@@ -10788,10 +10882,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20220327'!$B$19:$Y$19</c:f>
+              <c:f>'20220327'!$B$19:$Z$19</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="7">
                   <c:v>43324</c:v>
                 </c:pt>
@@ -10854,7 +10948,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'20220327'!$B$11:$Y$11</c:f>
+              <c:f>'20220327'!$B$11:$Z$11</c:f>
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
@@ -10934,10 +11028,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20220327'!$B$20:$Y$20</c:f>
+              <c:f>'20220327'!$B$20:$Z$20</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="22">
                   <c:v>10000</c:v>
                 </c:pt>
@@ -10997,7 +11091,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'20220327'!$B$11:$Y$11</c:f>
+              <c:f>'20220327'!$B$11:$Z$11</c:f>
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
@@ -11077,10 +11171,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20220327'!$B$21:$Y$21</c:f>
+              <c:f>'20220327'!$B$21:$Z$21</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="22">
                   <c:v>4000</c:v>
                 </c:pt>
@@ -11432,9 +11526,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'20220327'!$B$26:$Y$26</c:f>
+              <c:f>'20220327'!$B$26:$Z$26</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>平成９年</c:v>
                 </c:pt>
@@ -11506,16 +11600,19 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>令和2年</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>令和3年</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20220327'!$B$27:$Y$27</c:f>
+              <c:f>'20220327'!$B$27:$Z$27</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>603442</c:v>
                 </c:pt>
@@ -11569,6 +11666,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>1233186</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>613604</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11620,9 +11720,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'20220327'!$B$26:$Y$26</c:f>
+              <c:f>'20220327'!$B$26:$Z$26</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>平成９年</c:v>
                 </c:pt>
@@ -11694,16 +11794,19 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>令和2年</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>令和3年</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20220327'!$B$28:$Y$28</c:f>
+              <c:f>'20220327'!$B$28:$Z$28</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>509671</c:v>
                 </c:pt>
@@ -11756,6 +11859,9 @@
                   <c:v>582010</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -11808,9 +11914,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'20220327'!$B$26:$Y$26</c:f>
+              <c:f>'20220327'!$B$26:$Z$26</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>平成９年</c:v>
                 </c:pt>
@@ -11882,16 +11988,19 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>令和2年</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>令和3年</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20220327'!$B$29:$Y$29</c:f>
+              <c:f>'20220327'!$B$29:$Z$29</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>390215</c:v>
                 </c:pt>
@@ -11944,6 +12053,9 @@
                   <c:v>461946</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -11996,9 +12108,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'20220327'!$B$26:$Y$26</c:f>
+              <c:f>'20220327'!$B$26:$Z$26</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>平成９年</c:v>
                 </c:pt>
@@ -12070,16 +12182,19 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>令和2年</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>令和3年</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20220327'!$B$30:$Y$30</c:f>
+              <c:f>'20220327'!$B$30:$Z$30</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>304312</c:v>
                 </c:pt>
@@ -12133,6 +12248,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12184,9 +12302,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'20220327'!$B$26:$Y$26</c:f>
+              <c:f>'20220327'!$B$26:$Z$26</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>平成９年</c:v>
                 </c:pt>
@@ -12258,16 +12376,19 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>令和2年</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>令和3年</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20220327'!$B$31:$Y$31</c:f>
+              <c:f>'20220327'!$B$31:$Z$31</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>188117</c:v>
                 </c:pt>
@@ -12321,6 +12442,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>123420</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>73508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12372,9 +12496,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'20220327'!$B$26:$Y$26</c:f>
+              <c:f>'20220327'!$B$26:$Z$26</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>平成９年</c:v>
                 </c:pt>
@@ -12446,16 +12570,19 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>令和2年</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>令和3年</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20220327'!$B$32:$Y$32</c:f>
+              <c:f>'20220327'!$B$32:$Z$32</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>135000</c:v>
                 </c:pt>
@@ -12508,6 +12635,9 @@
                   <c:v>145000</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>145000</c:v>
                 </c:pt>
               </c:numCache>
@@ -12566,9 +12696,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'20220327'!$B$26:$Y$26</c:f>
+              <c:f>'20220327'!$B$26:$Z$26</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>平成９年</c:v>
                 </c:pt>
@@ -12640,16 +12770,19 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>令和2年</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>令和3年</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20220327'!$B$33:$Y$33</c:f>
+              <c:f>'20220327'!$B$33:$Z$33</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>70000</c:v>
                 </c:pt>
@@ -12703,6 +12836,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>396310</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>229100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12760,9 +12896,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'20220327'!$B$26:$Y$26</c:f>
+              <c:f>'20220327'!$B$26:$Z$26</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>平成９年</c:v>
                 </c:pt>
@@ -12834,16 +12970,19 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>令和2年</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>令和3年</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20220327'!$B$34:$Y$34</c:f>
+              <c:f>'20220327'!$B$34:$Z$34</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12897,6 +13036,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>335650</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12954,9 +13096,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'20220327'!$B$26:$Y$26</c:f>
+              <c:f>'20220327'!$B$26:$Z$26</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>平成９年</c:v>
                 </c:pt>
@@ -13028,16 +13170,19 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>令和2年</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>令和3年</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20220327'!$B$35:$Y$35</c:f>
+              <c:f>'20220327'!$B$35:$Z$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>63360</c:v>
                 </c:pt>
@@ -13090,6 +13235,9 @@
                   <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>50000</c:v>
                 </c:pt>
               </c:numCache>
@@ -13148,9 +13296,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'20220327'!$B$26:$Y$26</c:f>
+              <c:f>'20220327'!$B$26:$Z$26</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>平成９年</c:v>
                 </c:pt>
@@ -13222,16 +13370,19 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>令和2年</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>令和3年</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20220327'!$B$36:$Y$36</c:f>
+              <c:f>'20220327'!$B$36:$Z$36</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>65378</c:v>
                 </c:pt>
@@ -13285,6 +13436,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>63520</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>36545</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13342,9 +13496,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'20220327'!$B$26:$Y$26</c:f>
+              <c:f>'20220327'!$B$26:$Z$26</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>平成９年</c:v>
                 </c:pt>
@@ -13416,16 +13570,19 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>令和2年</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>令和3年</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20220327'!$B$37:$Y$37</c:f>
+              <c:f>'20220327'!$B$37:$Z$37</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>122293</c:v>
                 </c:pt>
@@ -13479,6 +13636,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>426469</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13536,9 +13696,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'20220327'!$B$26:$Y$26</c:f>
+              <c:f>'20220327'!$B$26:$Z$26</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>平成９年</c:v>
                 </c:pt>
@@ -13610,16 +13770,19 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>令和2年</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>令和3年</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20220327'!$B$38:$Y$38</c:f>
+              <c:f>'20220327'!$B$38:$Z$38</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>73850</c:v>
                 </c:pt>
@@ -13673,6 +13836,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>134285</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13733,9 +13899,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'20220327'!$B$26:$Y$26</c:f>
+              <c:f>'20220327'!$B$26:$Z$26</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>平成９年</c:v>
                 </c:pt>
@@ -13807,16 +13973,19 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>令和2年</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>令和3年</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20220327'!$B$39:$Y$39</c:f>
+              <c:f>'20220327'!$B$39:$Z$39</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>24000</c:v>
                 </c:pt>
@@ -13870,6 +14039,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>70000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13930,9 +14102,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'20220327'!$B$26:$Y$26</c:f>
+              <c:f>'20220327'!$B$26:$Z$26</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>平成９年</c:v>
                 </c:pt>
@@ -14004,16 +14176,19 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>令和2年</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>令和3年</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20220327'!$B$40:$Y$40</c:f>
+              <c:f>'20220327'!$B$40:$Z$40</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14060,6 +14235,9 @@
                   <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>200000</c:v>
                 </c:pt>
               </c:numCache>
@@ -14121,9 +14299,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'20220327'!$B$26:$Y$26</c:f>
+              <c:f>'20220327'!$B$26:$Z$26</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>平成９年</c:v>
                 </c:pt>
@@ -14195,16 +14373,19 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>令和2年</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>令和3年</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20220327'!$B$41:$Y$41</c:f>
+              <c:f>'20220327'!$B$41:$Z$41</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14270,9 +14451,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'20220327'!$B$26:$Y$26</c:f>
+              <c:f>'20220327'!$B$26:$Z$26</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>平成９年</c:v>
                 </c:pt>
@@ -14344,16 +14525,19 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>令和2年</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>令和3年</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20220327'!$B$42:$Y$42</c:f>
+              <c:f>'20220327'!$B$42:$Z$42</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1140735</c:v>
                 </c:pt>
@@ -18093,16 +18277,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>600346</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>182608</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>562246</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>39733</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>488496</xdr:colOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>69396</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -21535,15 +21719,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E95C0B-FB68-4970-975E-8C4E1CD58C7F}">
   <dimension ref="A1:AG49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O35" sqref="O35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AG40" sqref="AG40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
     <col min="2" max="25" width="10.75" customWidth="1"/>
+    <col min="26" max="26" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.4">
@@ -21619,6 +21804,9 @@
       <c r="Y1" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="Z1" s="3" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
@@ -21684,6 +21872,9 @@
       <c r="Y2" s="4">
         <v>3254925</v>
       </c>
+      <c r="Z2" s="4">
+        <v>3450047</v>
+      </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
@@ -21749,6 +21940,9 @@
       <c r="Y3" s="4">
         <v>1396800</v>
       </c>
+      <c r="Z3" s="22">
+        <v>1252600</v>
+      </c>
       <c r="AB3">
         <f>T3/4800</f>
         <v>304.16666666666669</v>
@@ -21838,6 +22032,9 @@
       <c r="Y4" s="4">
         <v>1408199</v>
       </c>
+      <c r="Z4" s="22">
+        <v>739818</v>
+      </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
@@ -21903,6 +22100,9 @@
       <c r="Y5" s="4">
         <v>0</v>
       </c>
+      <c r="Z5" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
@@ -21967,6 +22167,9 @@
       </c>
       <c r="Y6" s="4">
         <v>57209</v>
+      </c>
+      <c r="Z6" s="23">
+        <v>244534</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.4">
@@ -21996,7 +22199,7 @@
         <v>27</v>
       </c>
       <c r="B8" s="4">
-        <f t="shared" ref="B8:Y8" si="1">SUM(B2:B7)</f>
+        <f t="shared" ref="B8:Z8" si="1">SUM(B2:B7)</f>
         <v>5329941</v>
       </c>
       <c r="C8" s="4">
@@ -22072,6 +22275,10 @@
       <c r="Y8" s="4">
         <f t="shared" si="1"/>
         <v>6117133</v>
+      </c>
+      <c r="Z8" s="4">
+        <f t="shared" si="1"/>
+        <v>5686999</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.4">
@@ -22301,6 +22508,9 @@
       <c r="Y12" s="5">
         <v>108780</v>
       </c>
+      <c r="Z12" s="22">
+        <v>108780</v>
+      </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
@@ -22364,6 +22574,9 @@
       <c r="Y13" s="5">
         <v>0</v>
       </c>
+      <c r="Z13" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
@@ -22427,6 +22640,9 @@
       <c r="Y14" s="5">
         <v>74279</v>
       </c>
+      <c r="Z14" s="22">
+        <v>67622</v>
+      </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
@@ -22490,6 +22706,9 @@
       <c r="Y15" s="5">
         <v>0</v>
       </c>
+      <c r="Z15" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
@@ -22553,8 +22772,11 @@
       <c r="Y16" s="5">
         <v>1225140</v>
       </c>
+      <c r="Z16" s="7">
+        <v>563416</v>
+      </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -22614,8 +22836,11 @@
       <c r="Y17" s="5">
         <v>0</v>
       </c>
+      <c r="Z17" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -22661,8 +22886,11 @@
       <c r="Y18" s="5">
         <v>0</v>
       </c>
+      <c r="Z18" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -22695,7 +22923,7 @@
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -22726,7 +22954,7 @@
       </c>
       <c r="Y20" s="4"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -22757,7 +22985,7 @@
       </c>
       <c r="Y21" s="4"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -22790,7 +23018,7 @@
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B23" s="8">
         <f>SUM(B12:B19)</f>
         <v>1058578</v>
@@ -22869,8 +23097,12 @@
         <f>SUM(Y12:Y21)</f>
         <v>1408199</v>
       </c>
+      <c r="Z23" s="8">
+        <f>SUM(Z12:Z21)</f>
+        <v>739818</v>
+      </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.4">
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -22887,7 +23119,7 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B25" s="18" t="s">
         <v>72</v>
       </c>
@@ -22960,8 +23192,11 @@
       <c r="Y25" s="17" t="s">
         <v>71</v>
       </c>
+      <c r="Z25" s="24" t="s">
+        <v>83</v>
+      </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>51</v>
       </c>
@@ -23034,8 +23269,11 @@
       <c r="Y26" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="Z26" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -23099,8 +23337,11 @@
       <c r="Y27" s="4">
         <v>1233186</v>
       </c>
+      <c r="Z27" s="4">
+        <v>613604</v>
+      </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -23164,8 +23405,11 @@
       <c r="Y28" s="4">
         <v>0</v>
       </c>
+      <c r="Z28" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -23229,8 +23473,11 @@
       <c r="Y29" s="4">
         <v>0</v>
       </c>
+      <c r="Z29" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -23294,8 +23541,11 @@
       <c r="Y30" s="4">
         <v>70000</v>
       </c>
+      <c r="Z30" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -23359,8 +23609,11 @@
       <c r="Y31" s="4">
         <v>123420</v>
       </c>
+      <c r="Z31" s="4">
+        <v>73508</v>
+      </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -23424,8 +23677,11 @@
       <c r="Y32" s="4">
         <v>145000</v>
       </c>
+      <c r="Z32" s="4">
+        <v>145000</v>
+      </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -23490,8 +23746,11 @@
       <c r="Y33" s="4">
         <v>396310</v>
       </c>
+      <c r="Z33" s="4">
+        <v>229100</v>
+      </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -23555,8 +23814,11 @@
       <c r="Y34" s="4">
         <v>335650</v>
       </c>
+      <c r="Z34" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>20</v>
       </c>
@@ -23620,8 +23882,11 @@
       <c r="Y35" s="4">
         <v>50000</v>
       </c>
+      <c r="Z35" s="4">
+        <v>50000</v>
+      </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -23686,8 +23951,11 @@
       <c r="Y36" s="4">
         <v>63520</v>
       </c>
+      <c r="Z36" s="4">
+        <v>36545</v>
+      </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>22</v>
       </c>
@@ -23751,8 +24019,11 @@
       <c r="Y37" s="4">
         <v>0</v>
       </c>
+      <c r="Z37" s="4">
+        <v>426469</v>
+      </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>23</v>
       </c>
@@ -23816,8 +24087,11 @@
       <c r="Y38" s="4">
         <v>0</v>
       </c>
+      <c r="Z38" s="4">
+        <v>134285</v>
+      </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>24</v>
       </c>
@@ -23881,8 +24155,11 @@
       <c r="Y39" s="4">
         <v>50000</v>
       </c>
+      <c r="Z39" s="4">
+        <v>70000</v>
+      </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -23942,8 +24219,11 @@
       <c r="Y40" s="4">
         <v>200000</v>
       </c>
+      <c r="Z40" s="4">
+        <v>200000</v>
+      </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>25</v>
       </c>
@@ -23975,8 +24255,9 @@
       <c r="W41" s="4"/>
       <c r="X41" s="4"/>
       <c r="Y41" s="4"/>
+      <c r="Z41" s="4"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -24008,8 +24289,9 @@
       <c r="W42" s="4"/>
       <c r="X42" s="4"/>
       <c r="Y42" s="4"/>
+      <c r="Z42" s="4"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>27</v>
       </c>
@@ -24091,8 +24373,12 @@
         <f t="shared" si="4"/>
         <v>2667086</v>
       </c>
+      <c r="Z43" s="4">
+        <f t="shared" ref="Z43" si="5">SUM(Z27:Z42)</f>
+        <v>1978511</v>
+      </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -24143,137 +24429,141 @@
       </c>
       <c r="Q44" s="4"/>
       <c r="R44" s="4">
-        <f t="shared" ref="R44:Y44" si="5">R8-R43</f>
+        <f t="shared" ref="R44:Y44" si="6">R8-R43</f>
         <v>4639367</v>
       </c>
       <c r="S44" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4360234</v>
       </c>
       <c r="T44" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4060058</v>
       </c>
       <c r="U44" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3165120</v>
       </c>
       <c r="V44" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3165656</v>
       </c>
       <c r="W44" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2923424</v>
       </c>
       <c r="X44" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3254925</v>
       </c>
       <c r="Y44" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3450047</v>
       </c>
+      <c r="Z44" s="4">
+        <f t="shared" ref="Z44" si="7">Z8-Z43</f>
+        <v>3708488</v>
+      </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>69</v>
       </c>
       <c r="B45" s="14"/>
       <c r="C45" s="14">
-        <f t="shared" ref="C45:Y45" si="6">C2-B44</f>
+        <f t="shared" ref="C45:Y45" si="8">C2-B44</f>
         <v>0</v>
       </c>
       <c r="D45" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-2049217</v>
       </c>
       <c r="E45" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F45" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G45" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2832723</v>
       </c>
       <c r="H45" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I45" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J45" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-3630553</v>
       </c>
       <c r="K45" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3700842</v>
       </c>
       <c r="L45" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M45" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8670</v>
       </c>
       <c r="N45" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-4823924</v>
       </c>
       <c r="O45" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4383876</v>
       </c>
       <c r="P45" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q45" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-4847004</v>
       </c>
       <c r="R45" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4689442</v>
       </c>
       <c r="S45" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T45" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U45" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V45" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>536</v>
       </c>
       <c r="W45" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2876</v>
       </c>
       <c r="X45" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y45" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B46" s="8"/>
       <c r="C46" s="8" t="s">
         <v>58</v>
@@ -24307,7 +24597,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.4">
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
@@ -24326,7 +24616,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.4">
       <c r="V48" s="7"/>
     </row>
     <row r="49" spans="12:13" x14ac:dyDescent="0.4">
@@ -24335,7 +24625,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="T2:Y7">
+  <conditionalFormatting sqref="T2:Y7 Z2:Z6">
     <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="min"/>
@@ -24349,7 +24639,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T28:Y40 T27:W27 Y27 T41:W42 Y41:Y42">
+  <conditionalFormatting sqref="T28:Y40 T27:W27 Y27 T41:W42 Y41:Y42 Z27:Z42">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="min"/>
@@ -24363,7 +24653,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:Y7">
+  <conditionalFormatting sqref="K2:Y7 Z2:Z6">
     <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
@@ -24377,7 +24667,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:Y22 V48">
+  <conditionalFormatting sqref="K12:Y22 V48 Z12:Z18">
     <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
@@ -24391,8 +24681,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L23:Y23">
-    <cfRule type="cellIs" dxfId="4" priority="10" operator="notEqual">
+  <conditionalFormatting sqref="L23:Z23">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="notEqual">
       <formula>L$4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24424,7 +24714,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:Y7">
+  <conditionalFormatting sqref="B2:Y7 Z2:Z6">
     <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
@@ -24439,26 +24729,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:K23">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="notEqual">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="notEqual">
       <formula>B$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44 G44:H44 K44:X44">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="notEqual">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="notEqual">
       <formula>C$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44:J44">
-    <cfRule type="cellIs" dxfId="1" priority="15" operator="notEqual">
+    <cfRule type="cellIs" dxfId="4" priority="15" operator="notEqual">
       <formula>K$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44:F44">
-    <cfRule type="cellIs" dxfId="0" priority="16" operator="notEqual">
+    <cfRule type="cellIs" dxfId="3" priority="16" operator="notEqual">
       <formula>G$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T27:Y42">
+  <conditionalFormatting sqref="T27:Z42">
     <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="min"/>
@@ -24472,7 +24762,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K27:Y31 K39:Y42 P32:Y38 K32:N38">
+  <conditionalFormatting sqref="K27:Y31 K39:Y42 P32:Y38 K32:N38 Z27:Z42">
     <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="min"/>
@@ -24500,7 +24790,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:Y31 B39:Y42 P32:Y38 B32:N38">
+  <conditionalFormatting sqref="B27:Y31 B39:Y42 P32:Y38 B32:N38 Z27:Z42">
     <cfRule type="dataBar" priority="20">
       <dataBar>
         <cfvo type="min"/>
@@ -24514,7 +24804,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12:Y22">
+  <conditionalFormatting sqref="B12:Y22 Z12:Z18">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
@@ -24556,7 +24846,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27:Y39">
+  <conditionalFormatting sqref="G27:Z39">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -24585,7 +24875,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>T2:Y7</xm:sqref>
+          <xm:sqref>T2:Y7 Z2:Z6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{95C10906-D6DC-40C8-B39A-1A569277E0FA}">
@@ -24596,7 +24886,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>T28:Y40 T27:W27 Y27 T41:W42 Y41:Y42</xm:sqref>
+          <xm:sqref>T28:Y40 T27:W27 Y27 T41:W42 Y41:Y42 Z27:Z42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{22952603-D3ED-42CD-B8C0-4D8D068DBAA9}">
@@ -24607,7 +24897,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K2:Y7</xm:sqref>
+          <xm:sqref>K2:Y7 Z2:Z6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8ED678B8-B3B5-4747-BAB9-8183D8DB12A3}">
@@ -24618,7 +24908,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K12:Y22 V48</xm:sqref>
+          <xm:sqref>K12:Y22 V48 Z12:Z18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A5F7864E-6F66-468E-9DB0-34619F72D456}">
@@ -24651,7 +24941,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B2:Y7</xm:sqref>
+          <xm:sqref>B2:Y7 Z2:Z6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A13902BB-9115-4461-B35E-BEBA3D2A05A9}">
@@ -24662,7 +24952,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>T27:Y42</xm:sqref>
+          <xm:sqref>T27:Z42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{899F8B31-4068-4E8E-9742-583C13FB6760}">
@@ -24673,7 +24963,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K27:Y31 K39:Y42 P32:Y38 K32:N38</xm:sqref>
+          <xm:sqref>K27:Y31 K39:Y42 P32:Y38 K32:N38 Z27:Z42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A53F9E0C-72CA-404F-B2A8-62221269BB4F}">
@@ -24695,7 +24985,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B27:Y31 B39:Y42 P32:Y38 B32:N38</xm:sqref>
+          <xm:sqref>B27:Y31 B39:Y42 P32:Y38 B32:N38 Z27:Z42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{58A86A78-F163-4F83-918A-E42A12845305}">
@@ -24706,7 +24996,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B12:Y22</xm:sqref>
+          <xm:sqref>B12:Y22 Z12:Z18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7CA78F61-21EB-4AF5-96FE-7AA77CA819AA}">
@@ -24739,7 +25029,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G27:Y39</xm:sqref>
+          <xm:sqref>G27:Z39</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -25172,7 +25462,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="notEqual">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="notEqual">
       <formula>C$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25191,7 +25481,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="notEqual">
       <formula>O$4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25210,7 +25500,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14">
-    <cfRule type="cellIs" dxfId="5" priority="72" operator="notEqual">
+    <cfRule type="cellIs" dxfId="0" priority="72" operator="notEqual">
       <formula>E$3</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tmp/歴代会計比較.xlsx
+++ b/tmp/歴代会計比較.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\github\neighborhood\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C46B82-9C0E-42A2-8E66-85CA21417104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DDE4C9-1BF7-4360-BD87-4D134AC58AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29070" windowHeight="16470" activeTab="2" xr2:uid="{91722BC7-0123-42BB-87D5-AEEE062398CE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{91722BC7-0123-42BB-87D5-AEEE062398CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="85">
   <si>
     <t>平成27年</t>
     <rPh sb="0" eb="2">
@@ -904,6 +905,16 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>令和4年</t>
+    <rPh sb="0" eb="2">
+      <t>レイワ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -1130,7 +1141,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1201,9 +1212,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8085,9 +8093,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'20220327'!$B$1:$Z$1</c:f>
+              <c:f>'20220327'!$B$1:$AA$1</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>平成９年</c:v>
                 </c:pt>
@@ -8162,16 +8170,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>令和3年</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>令和4年</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20220327'!$B$2:$Z$2</c:f>
+              <c:f>'20220327'!$B$2:$AA$2</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>2327753</c:v>
                 </c:pt>
@@ -8228,6 +8239,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>3450047</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3708488</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8279,9 +8293,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'20220327'!$B$1:$Z$1</c:f>
+              <c:f>'20220327'!$B$1:$AA$1</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>平成９年</c:v>
                 </c:pt>
@@ -8356,16 +8370,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>令和3年</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>令和4年</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20220327'!$B$3:$Z$3</c:f>
+              <c:f>'20220327'!$B$3:$AA$3</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1441600</c:v>
                 </c:pt>
@@ -8422,6 +8439,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>1252600</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1348800</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8473,9 +8493,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'20220327'!$B$1:$Z$1</c:f>
+              <c:f>'20220327'!$B$1:$AA$1</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>平成９年</c:v>
                 </c:pt>
@@ -8550,16 +8570,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>令和3年</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>令和4年</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20220327'!$B$4:$Z$4</c:f>
+              <c:f>'20220327'!$B$4:$AA$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1058578</c:v>
                 </c:pt>
@@ -8616,6 +8639,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>739818</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>365981</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8667,9 +8693,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'20220327'!$B$1:$Z$1</c:f>
+              <c:f>'20220327'!$B$1:$AA$1</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>平成９年</c:v>
                 </c:pt>
@@ -8744,16 +8770,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>令和3年</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>令和4年</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20220327'!$B$5:$Z$5</c:f>
+              <c:f>'20220327'!$B$5:$AA$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>394000</c:v>
                 </c:pt>
@@ -8809,6 +8838,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -8861,9 +8893,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'20220327'!$B$1:$Z$1</c:f>
+              <c:f>'20220327'!$B$1:$AA$1</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>平成９年</c:v>
                 </c:pt>
@@ -8938,16 +8970,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>令和3年</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>令和4年</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20220327'!$B$6:$Z$6</c:f>
+              <c:f>'20220327'!$B$6:$AA$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>108010</c:v>
                 </c:pt>
@@ -9055,9 +9090,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'20220327'!$B$1:$Z$1</c:f>
+              <c:f>'20220327'!$B$1:$AA$1</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>平成９年</c:v>
                 </c:pt>
@@ -9132,18 +9167,48 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>令和3年</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>令和4年</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20220327'!$B$7:$Z$7</c:f>
+              <c:f>'20220327'!$B$7:$AA$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
+                <c:pt idx="16" formatCode="#,##0_);[Red]\(#,##0\)">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="#,##0_);[Red]\(#,##0\)">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="#,##0_);[Red]\(#,##0\)">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="#,##0_);[Red]\(#,##0\)">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="#,##0_);[Red]\(#,##0\)">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="#,##0_);[Red]\(#,##0\)">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="22" formatCode="#,##0_);[Red]\(#,##0\)">
                   <c:v>351499</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="#,##0_);[Red]\(#,##0\)">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="#,##0_);[Red]\(#,##0\)">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="#,##0_);[Red]\(#,##0\)">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9501,9 +9566,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'20220327'!$B$11:$Z$11</c:f>
+              <c:f>'20220327'!$B$11:$AA$11</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>平成９年</c:v>
                 </c:pt>
@@ -9575,16 +9640,22 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>令和2年</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>令和3年</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>令和4年</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20220327'!$B$12:$Z$12</c:f>
+              <c:f>'20220327'!$B$12:$AA$12</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>96640</c:v>
                 </c:pt>
@@ -9637,6 +9708,9 @@
                   <c:v>108780</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>108780</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>108780</c:v>
                 </c:pt>
               </c:numCache>
@@ -9689,9 +9763,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'20220327'!$B$11:$Z$11</c:f>
+              <c:f>'20220327'!$B$11:$AA$11</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>平成９年</c:v>
                 </c:pt>
@@ -9763,16 +9837,22 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>令和2年</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>令和3年</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>令和4年</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20220327'!$B$13:$Z$13</c:f>
+              <c:f>'20220327'!$B$13:$AA$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>360800</c:v>
                 </c:pt>
@@ -9825,6 +9905,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -9877,9 +9960,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'20220327'!$B$11:$Z$11</c:f>
+              <c:f>'20220327'!$B$11:$AA$11</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>平成９年</c:v>
                 </c:pt>
@@ -9951,16 +10034,22 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>令和2年</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>令和3年</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>令和4年</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20220327'!$B$14:$Z$14</c:f>
+              <c:f>'20220327'!$B$14:$AA$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>158346</c:v>
                 </c:pt>
@@ -10065,9 +10154,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'20220327'!$B$11:$Z$11</c:f>
+              <c:f>'20220327'!$B$11:$AA$11</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>平成９年</c:v>
                 </c:pt>
@@ -10139,16 +10228,22 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>令和2年</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>令和3年</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>令和4年</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20220327'!$B$15:$Z$15</c:f>
+              <c:f>'20220327'!$B$15:$AA$15</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>2500</c:v>
                 </c:pt>
@@ -10202,6 +10297,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10253,9 +10351,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'20220327'!$B$11:$Z$11</c:f>
+              <c:f>'20220327'!$B$11:$AA$11</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>平成９年</c:v>
                 </c:pt>
@@ -10327,16 +10425,22 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>令和2年</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>令和3年</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>令和4年</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20220327'!$B$16:$Z$16</c:f>
+              <c:f>'20220327'!$B$16:$AA$16</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>434877</c:v>
                 </c:pt>
@@ -10390,6 +10494,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>563416</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>254701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10441,9 +10548,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'20220327'!$B$11:$Z$11</c:f>
+              <c:f>'20220327'!$B$11:$AA$11</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>平成９年</c:v>
                 </c:pt>
@@ -10515,16 +10622,22 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>令和2年</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>令和3年</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>令和4年</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20220327'!$B$17:$Z$17</c:f>
+              <c:f>'20220327'!$B$17:$AA$17</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>5415</c:v>
                 </c:pt>
@@ -10574,6 +10687,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -10632,9 +10748,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'20220327'!$B$11:$Z$11</c:f>
+              <c:f>'20220327'!$B$11:$AA$11</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>平成９年</c:v>
                 </c:pt>
@@ -10706,16 +10822,22 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>令和2年</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>令和3年</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>令和4年</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20220327'!$B$18:$Z$18</c:f>
+              <c:f>'20220327'!$B$18:$AA$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="9">
                   <c:v>23600</c:v>
                 </c:pt>
@@ -10744,6 +10866,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -10802,9 +10927,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'20220327'!$B$11:$Z$11</c:f>
+              <c:f>'20220327'!$B$11:$AA$11</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>平成９年</c:v>
                 </c:pt>
@@ -10876,16 +11001,22 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>令和2年</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>令和3年</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>令和4年</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20220327'!$B$19:$Z$19</c:f>
+              <c:f>'20220327'!$B$19:$AA$19</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="7">
                   <c:v>43324</c:v>
                 </c:pt>
@@ -10948,9 +11079,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'20220327'!$B$11:$Z$11</c:f>
+              <c:f>'20220327'!$B$11:$AA$11</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>平成９年</c:v>
                 </c:pt>
@@ -11022,16 +11153,22 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>令和2年</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>令和3年</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>令和4年</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20220327'!$B$20:$Z$20</c:f>
+              <c:f>'20220327'!$B$20:$AA$20</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="22">
                   <c:v>10000</c:v>
                 </c:pt>
@@ -11091,9 +11228,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'20220327'!$B$11:$Z$11</c:f>
+              <c:f>'20220327'!$B$11:$AA$11</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>平成９年</c:v>
                 </c:pt>
@@ -11165,16 +11302,22 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>令和2年</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>令和3年</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>令和4年</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20220327'!$B$21:$Z$21</c:f>
+              <c:f>'20220327'!$B$21:$AA$21</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="22">
                   <c:v>4000</c:v>
                 </c:pt>
@@ -11526,9 +11669,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'20220327'!$B$26:$Z$26</c:f>
+              <c:f>'20220327'!$B$26:$AA$26</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>平成９年</c:v>
                 </c:pt>
@@ -11603,16 +11746,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>令和3年</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>令和4年</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20220327'!$B$27:$Z$27</c:f>
+              <c:f>'20220327'!$B$27:$AA$27</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>603442</c:v>
                 </c:pt>
@@ -11669,6 +11815,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>613604</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>750000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11720,9 +11869,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'20220327'!$B$26:$Z$26</c:f>
+              <c:f>'20220327'!$B$26:$AA$26</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>平成９年</c:v>
                 </c:pt>
@@ -11797,16 +11946,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>令和3年</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>令和4年</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20220327'!$B$28:$Z$28</c:f>
+              <c:f>'20220327'!$B$28:$AA$28</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>509671</c:v>
                 </c:pt>
@@ -11862,6 +12014,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -11914,9 +12069,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'20220327'!$B$26:$Z$26</c:f>
+              <c:f>'20220327'!$B$26:$AA$26</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>平成９年</c:v>
                 </c:pt>
@@ -11991,16 +12146,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>令和3年</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>令和4年</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20220327'!$B$29:$Z$29</c:f>
+              <c:f>'20220327'!$B$29:$AA$29</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>390215</c:v>
                 </c:pt>
@@ -12057,6 +12215,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>381055</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12108,9 +12269,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'20220327'!$B$26:$Z$26</c:f>
+              <c:f>'20220327'!$B$26:$AA$26</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>平成９年</c:v>
                 </c:pt>
@@ -12185,16 +12346,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>令和3年</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>令和4年</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20220327'!$B$30:$Z$30</c:f>
+              <c:f>'20220327'!$B$30:$AA$30</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>304312</c:v>
                 </c:pt>
@@ -12250,6 +12414,9 @@
                   <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -12302,9 +12469,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'20220327'!$B$26:$Z$26</c:f>
+              <c:f>'20220327'!$B$26:$AA$26</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>平成９年</c:v>
                 </c:pt>
@@ -12379,16 +12546,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>令和3年</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>令和4年</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20220327'!$B$31:$Z$31</c:f>
+              <c:f>'20220327'!$B$31:$AA$31</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>188117</c:v>
                 </c:pt>
@@ -12445,6 +12615,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>73508</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>86748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12496,9 +12669,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'20220327'!$B$26:$Z$26</c:f>
+              <c:f>'20220327'!$B$26:$AA$26</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>平成９年</c:v>
                 </c:pt>
@@ -12573,16 +12746,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>令和3年</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>令和4年</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20220327'!$B$32:$Z$32</c:f>
+              <c:f>'20220327'!$B$32:$AA$32</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>135000</c:v>
                 </c:pt>
@@ -12638,6 +12814,9 @@
                   <c:v>145000</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>145000</c:v>
                 </c:pt>
               </c:numCache>
@@ -12696,9 +12875,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'20220327'!$B$26:$Z$26</c:f>
+              <c:f>'20220327'!$B$26:$AA$26</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>平成９年</c:v>
                 </c:pt>
@@ -12773,16 +12952,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>令和3年</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>令和4年</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20220327'!$B$33:$Z$33</c:f>
+              <c:f>'20220327'!$B$33:$AA$33</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>70000</c:v>
                 </c:pt>
@@ -12839,6 +13021,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>229100</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>215900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12896,9 +13081,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'20220327'!$B$26:$Z$26</c:f>
+              <c:f>'20220327'!$B$26:$AA$26</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>平成９年</c:v>
                 </c:pt>
@@ -12973,16 +13158,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>令和3年</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>令和4年</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20220327'!$B$34:$Z$34</c:f>
+              <c:f>'20220327'!$B$34:$AA$34</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13038,6 +13226,9 @@
                   <c:v>335650</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -13096,9 +13287,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'20220327'!$B$26:$Z$26</c:f>
+              <c:f>'20220327'!$B$26:$AA$26</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>平成９年</c:v>
                 </c:pt>
@@ -13173,16 +13364,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>令和3年</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>令和4年</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20220327'!$B$35:$Z$35</c:f>
+              <c:f>'20220327'!$B$35:$AA$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>63360</c:v>
                 </c:pt>
@@ -13239,6 +13433,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>70000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13296,9 +13493,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'20220327'!$B$26:$Z$26</c:f>
+              <c:f>'20220327'!$B$26:$AA$26</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>平成９年</c:v>
                 </c:pt>
@@ -13373,16 +13570,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>令和3年</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>令和4年</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20220327'!$B$36:$Z$36</c:f>
+              <c:f>'20220327'!$B$36:$AA$36</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>65378</c:v>
                 </c:pt>
@@ -13439,6 +13639,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>36545</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25628</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13496,9 +13699,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'20220327'!$B$26:$Z$26</c:f>
+              <c:f>'20220327'!$B$26:$AA$26</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>平成９年</c:v>
                 </c:pt>
@@ -13573,16 +13776,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>令和3年</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>令和4年</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20220327'!$B$37:$Z$37</c:f>
+              <c:f>'20220327'!$B$37:$AA$37</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>122293</c:v>
                 </c:pt>
@@ -13639,6 +13845,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>426469</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>287613</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13696,9 +13905,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'20220327'!$B$26:$Z$26</c:f>
+              <c:f>'20220327'!$B$26:$AA$26</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>平成９年</c:v>
                 </c:pt>
@@ -13773,16 +13982,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>令和3年</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>令和4年</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20220327'!$B$38:$Z$38</c:f>
+              <c:f>'20220327'!$B$38:$AA$38</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>73850</c:v>
                 </c:pt>
@@ -13839,6 +14051,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>134285</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>199131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13899,9 +14114,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'20220327'!$B$26:$Z$26</c:f>
+              <c:f>'20220327'!$B$26:$AA$26</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>平成９年</c:v>
                 </c:pt>
@@ -13976,16 +14191,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>令和3年</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>令和4年</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20220327'!$B$39:$Z$39</c:f>
+              <c:f>'20220327'!$B$39:$AA$39</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>24000</c:v>
                 </c:pt>
@@ -14042,6 +14260,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14102,9 +14323,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'20220327'!$B$26:$Z$26</c:f>
+              <c:f>'20220327'!$B$26:$AA$26</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>平成９年</c:v>
                 </c:pt>
@@ -14179,16 +14400,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>令和3年</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>令和4年</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20220327'!$B$40:$Z$40</c:f>
+              <c:f>'20220327'!$B$40:$AA$40</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14238,6 +14462,9 @@
                   <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>200000</c:v>
                 </c:pt>
               </c:numCache>
@@ -14299,9 +14526,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'20220327'!$B$26:$Z$26</c:f>
+              <c:f>'20220327'!$B$26:$AA$26</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>平成９年</c:v>
                 </c:pt>
@@ -14376,16 +14603,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>令和3年</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>令和4年</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20220327'!$B$41:$Z$41</c:f>
+              <c:f>'20220327'!$B$41:$AA$41</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14451,9 +14681,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'20220327'!$B$26:$Z$26</c:f>
+              <c:f>'20220327'!$B$26:$AA$26</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>平成９年</c:v>
                 </c:pt>
@@ -14528,16 +14758,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>令和3年</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>令和4年</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20220327'!$B$42:$Z$42</c:f>
+              <c:f>'20220327'!$B$42:$AA$42</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1140735</c:v>
                 </c:pt>
@@ -18201,13 +18434,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>236605</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>93201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>402180</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>205740</xdr:rowOff>
@@ -18239,13 +18472,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>151039</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -18277,13 +18510,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>562246</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>39733</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>69396</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
@@ -18620,13 +18853,13 @@
       <selection pane="topRight" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="25" width="10.75" customWidth="1"/>
+    <col min="1" max="1" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="25" width="10.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>51</v>
       </c>
@@ -18700,7 +18933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -18765,7 +18998,7 @@
         <v>3254925</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -18830,11 +19063,11 @@
         <v>1396800</v>
       </c>
       <c r="AB3">
-        <f>T3/4800</f>
+        <f t="shared" ref="AB3:AG3" si="0">T3/4800</f>
         <v>304.16666666666669</v>
       </c>
       <c r="AC3">
-        <f t="shared" ref="AC3:AG3" si="0">U3/4800</f>
+        <f t="shared" si="0"/>
         <v>303.41666666666669</v>
       </c>
       <c r="AD3">
@@ -18854,7 +19087,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -18919,7 +19152,7 @@
         <v>1408199</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -18984,7 +19217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -19049,7 +19282,7 @@
         <v>57209</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -19071,7 +19304,7 @@
       </c>
       <c r="Y7" s="4"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -19154,7 +19387,7 @@
         <v>6117133</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.45">
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -19171,7 +19404,7 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.45">
       <c r="B10" s="10">
         <v>1997</v>
       </c>
@@ -19245,7 +19478,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>51</v>
       </c>
@@ -19319,7 +19552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -19382,7 +19615,7 @@
         <v>108780</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -19445,7 +19678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -19508,7 +19741,7 @@
         <v>74279</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -19571,7 +19804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -19634,7 +19867,7 @@
         <v>1225140</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -19695,7 +19928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -19742,7 +19975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -19775,7 +20008,7 @@
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -19806,7 +20039,7 @@
       </c>
       <c r="Y20" s="4"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -19837,7 +20070,7 @@
       </c>
       <c r="Y21" s="4"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -19870,7 +20103,7 @@
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B23" s="8">
         <f>SUM(B12:B19)</f>
         <v>1058578</v>
@@ -19891,7 +20124,7 @@
         <v>1067340</v>
       </c>
       <c r="I23" s="8">
-        <f t="shared" ref="I23" si="2">SUM(I12:I19)</f>
+        <f>SUM(I12:I19)</f>
         <v>1136600</v>
       </c>
       <c r="J23" s="8"/>
@@ -19900,45 +20133,45 @@
         <v>1114061</v>
       </c>
       <c r="L23" s="8">
-        <f t="shared" ref="L23:W23" si="3">SUM(L12:L21)</f>
+        <f t="shared" ref="L23:W23" si="2">SUM(L12:L21)</f>
         <v>1190934</v>
       </c>
       <c r="M23" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1253187</v>
       </c>
       <c r="N23" s="8"/>
       <c r="O23" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1365485</v>
       </c>
       <c r="P23" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1408289</v>
       </c>
       <c r="Q23" s="8"/>
       <c r="R23" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1617086</v>
       </c>
       <c r="S23" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1920933</v>
       </c>
       <c r="T23" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U23" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2112057</v>
       </c>
       <c r="V23" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1972112</v>
       </c>
       <c r="W23" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1870096</v>
       </c>
       <c r="X23" s="8">
@@ -19950,7 +20183,7 @@
         <v>1408199</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.45">
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -19967,7 +20200,7 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.45">
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -19984,7 +20217,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
         <v>51</v>
       </c>
@@ -20058,7 +20291,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -20123,7 +20356,7 @@
         <v>844000</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -20188,7 +20421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -20253,7 +20486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -20318,7 +20551,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -20383,7 +20616,7 @@
         <v>123420</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -20448,7 +20681,7 @@
         <v>145000</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -20514,7 +20747,7 @@
         <v>396310</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -20579,7 +20812,7 @@
         <v>335650</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>20</v>
       </c>
@@ -20644,7 +20877,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -20710,7 +20943,7 @@
         <v>63520</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>22</v>
       </c>
@@ -20775,7 +21008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>23</v>
       </c>
@@ -20840,7 +21073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>24</v>
       </c>
@@ -20905,7 +21138,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -20966,7 +21199,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>25</v>
       </c>
@@ -21003,7 +21236,7 @@
         <v>389186</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -21036,7 +21269,7 @@
       <c r="X42" s="4"/>
       <c r="Y42" s="4"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>27</v>
       </c>
@@ -21087,39 +21320,39 @@
       </c>
       <c r="Q43" s="4"/>
       <c r="R43" s="4">
-        <f t="shared" ref="R43:Y43" si="4">SUM(R27:R42)</f>
+        <f t="shared" ref="R43:Y43" si="3">SUM(R27:R42)</f>
         <v>3517790</v>
       </c>
       <c r="S43" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4144656</v>
       </c>
       <c r="T43" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4087890</v>
       </c>
       <c r="U43" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4968588</v>
       </c>
       <c r="V43" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3867886</v>
       </c>
       <c r="W43" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3965093</v>
       </c>
       <c r="X43" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4162065</v>
       </c>
       <c r="Y43" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2667086</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -21170,137 +21403,137 @@
       </c>
       <c r="Q44" s="4"/>
       <c r="R44" s="4">
-        <f t="shared" ref="R44:Y44" si="5">R8-R43</f>
+        <f t="shared" ref="R44:Y44" si="4">R8-R43</f>
         <v>4639367</v>
       </c>
       <c r="S44" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4360234</v>
       </c>
       <c r="T44" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4060058</v>
       </c>
       <c r="U44" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3165120</v>
       </c>
       <c r="V44" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3165656</v>
       </c>
       <c r="W44" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2923424</v>
       </c>
       <c r="X44" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3254925</v>
       </c>
       <c r="Y44" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3450047</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>69</v>
       </c>
       <c r="B45" s="14"/>
       <c r="C45" s="14">
-        <f t="shared" ref="C45:Y45" si="6">C2-B44</f>
+        <f t="shared" ref="C45:Y45" si="5">C2-B44</f>
         <v>0</v>
       </c>
       <c r="D45" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-2049217</v>
       </c>
       <c r="E45" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F45" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G45" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2832723</v>
       </c>
       <c r="H45" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I45" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J45" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-3630553</v>
       </c>
       <c r="K45" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3700842</v>
       </c>
       <c r="L45" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M45" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>8670</v>
       </c>
       <c r="N45" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-4823924</v>
       </c>
       <c r="O45" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4383876</v>
       </c>
       <c r="P45" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q45" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-4847004</v>
       </c>
       <c r="R45" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4689442</v>
       </c>
       <c r="S45" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T45" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U45" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V45" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>536</v>
       </c>
       <c r="W45" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2876</v>
       </c>
       <c r="X45" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y45" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B46" s="8"/>
       <c r="C46" s="8" t="s">
         <v>58</v>
@@ -21334,7 +21567,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.45">
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
@@ -21353,10 +21586,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.45">
       <c r="V48" s="7"/>
     </row>
-    <row r="49" spans="12:13" x14ac:dyDescent="0.4">
+    <row r="49" spans="12:13" x14ac:dyDescent="0.45">
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
     </row>
@@ -21704,10 +21937,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21717,21 +21950,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E95C0B-FB68-4970-975E-8C4E1CD58C7F}">
-  <dimension ref="A1:AG49"/>
+  <dimension ref="A1:AH49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AG40" sqref="AG40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="25" width="10.75" customWidth="1"/>
-    <col min="26" max="26" width="11.5" customWidth="1"/>
+    <col min="1" max="1" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="25" width="10.69921875" customWidth="1"/>
+    <col min="26" max="27" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>51</v>
       </c>
@@ -21807,8 +22040,11 @@
       <c r="Z1" s="3" t="s">
         <v>82</v>
       </c>
+      <c r="AA1" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -21875,8 +22111,11 @@
       <c r="Z2" s="4">
         <v>3450047</v>
       </c>
+      <c r="AA2" s="14">
+        <v>3708488</v>
+      </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -21943,32 +22182,35 @@
       <c r="Z3" s="22">
         <v>1252600</v>
       </c>
-      <c r="AB3">
-        <f>T3/4800</f>
+      <c r="AA3" s="7">
+        <v>1348800</v>
+      </c>
+      <c r="AC3">
+        <f t="shared" ref="AC3:AH3" si="0">T3/4800</f>
         <v>304.16666666666669</v>
-      </c>
-      <c r="AC3">
-        <f t="shared" ref="AC3:AG3" si="0">U3/4800</f>
-        <v>303.41666666666669</v>
       </c>
       <c r="AD3">
         <f t="shared" si="0"/>
-        <v>298.08333333333331</v>
+        <v>303.41666666666669</v>
       </c>
       <c r="AE3">
         <f t="shared" si="0"/>
-        <v>296</v>
+        <v>298.08333333333331</v>
       </c>
       <c r="AF3">
         <f t="shared" si="0"/>
-        <v>292.25</v>
+        <v>296</v>
       </c>
       <c r="AG3">
         <f t="shared" si="0"/>
+        <v>292.25</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" si="0"/>
         <v>291</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -22035,8 +22277,11 @@
       <c r="Z4" s="22">
         <v>739818</v>
       </c>
+      <c r="AA4" s="7">
+        <v>365981</v>
+      </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -22103,8 +22348,11 @@
       <c r="Z5" s="22">
         <v>0</v>
       </c>
+      <c r="AA5" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -22171,8 +22419,9 @@
       <c r="Z6" s="23">
         <v>244534</v>
       </c>
+      <c r="AA6" s="7"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -22183,23 +22432,43 @@
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
+      <c r="R7" s="4">
+        <v>0</v>
+      </c>
+      <c r="S7" s="4">
+        <v>0</v>
+      </c>
+      <c r="T7" s="4">
+        <v>0</v>
+      </c>
+      <c r="U7" s="4">
+        <v>0</v>
+      </c>
+      <c r="V7" s="4">
+        <v>0</v>
+      </c>
+      <c r="W7" s="4">
+        <v>0</v>
+      </c>
       <c r="X7" s="4">
         <v>351499</v>
       </c>
-      <c r="Y7" s="4"/>
+      <c r="Y7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="4">
-        <f t="shared" ref="B8:Z8" si="1">SUM(B2:B7)</f>
+        <f t="shared" ref="B8:AA8" si="1">SUM(B2:B7)</f>
         <v>5329941</v>
       </c>
       <c r="C8" s="4">
@@ -22280,8 +22549,9 @@
         <f t="shared" si="1"/>
         <v>5686999</v>
       </c>
+      <c r="AA8" s="14"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.45">
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -22298,7 +22568,7 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.45">
       <c r="B10" s="10">
         <v>1997</v>
       </c>
@@ -22371,8 +22641,14 @@
       <c r="Y10" s="10">
         <v>2020</v>
       </c>
+      <c r="Z10" s="10">
+        <v>2021</v>
+      </c>
+      <c r="AA10" s="10">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>51</v>
       </c>
@@ -22445,8 +22721,14 @@
       <c r="Y11" s="9" t="s">
         <v>5</v>
       </c>
+      <c r="Z11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -22511,8 +22793,11 @@
       <c r="Z12" s="22">
         <v>108780</v>
       </c>
+      <c r="AA12" s="22">
+        <v>108780</v>
+      </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -22577,8 +22862,11 @@
       <c r="Z13" s="22">
         <v>0</v>
       </c>
+      <c r="AA13" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -22643,8 +22931,9 @@
       <c r="Z14" s="22">
         <v>67622</v>
       </c>
+      <c r="AA14" s="7"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -22709,8 +22998,11 @@
       <c r="Z15" s="7">
         <v>0</v>
       </c>
+      <c r="AA15" s="7">
+        <v>2500</v>
+      </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -22775,8 +23067,11 @@
       <c r="Z16" s="7">
         <v>563416</v>
       </c>
+      <c r="AA16" s="7">
+        <v>254701</v>
+      </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -22839,8 +23134,11 @@
       <c r="Z17" s="7">
         <v>0</v>
       </c>
+      <c r="AA17" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -22889,8 +23187,11 @@
       <c r="Z18" s="7">
         <v>0</v>
       </c>
+      <c r="AA18" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -22923,7 +23224,7 @@
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -22954,7 +23255,7 @@
       </c>
       <c r="Y20" s="4"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -22985,7 +23286,7 @@
       </c>
       <c r="Y21" s="4"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -23018,7 +23319,7 @@
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B23" s="8">
         <f>SUM(B12:B19)</f>
         <v>1058578</v>
@@ -23039,7 +23340,7 @@
         <v>1067340</v>
       </c>
       <c r="I23" s="8">
-        <f t="shared" ref="I23" si="2">SUM(I12:I19)</f>
+        <f>SUM(I12:I19)</f>
         <v>1136600</v>
       </c>
       <c r="J23" s="8"/>
@@ -23048,45 +23349,45 @@
         <v>1114061</v>
       </c>
       <c r="L23" s="8">
-        <f t="shared" ref="L23:W23" si="3">SUM(L12:L21)</f>
+        <f t="shared" ref="L23:W23" si="2">SUM(L12:L21)</f>
         <v>1190934</v>
       </c>
       <c r="M23" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1253187</v>
       </c>
       <c r="N23" s="8"/>
       <c r="O23" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1365485</v>
       </c>
       <c r="P23" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1408289</v>
       </c>
       <c r="Q23" s="8"/>
       <c r="R23" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1617086</v>
       </c>
       <c r="S23" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1920933</v>
       </c>
       <c r="T23" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U23" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2112057</v>
       </c>
       <c r="V23" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1972112</v>
       </c>
       <c r="W23" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1870096</v>
       </c>
       <c r="X23" s="8">
@@ -23101,8 +23402,12 @@
         <f>SUM(Z12:Z21)</f>
         <v>739818</v>
       </c>
+      <c r="AA23" s="8">
+        <f>SUM(AA12:AA21)</f>
+        <v>365981</v>
+      </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -23119,7 +23424,7 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B25" s="18" t="s">
         <v>72</v>
       </c>
@@ -23192,11 +23497,14 @@
       <c r="Y25" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="Z25" s="24" t="s">
+      <c r="Z25" s="17" t="s">
         <v>83</v>
       </c>
+      <c r="AA25" s="17" t="s">
+        <v>83</v>
+      </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
         <v>51</v>
       </c>
@@ -23272,8 +23580,11 @@
       <c r="Z26" s="4" t="s">
         <v>82</v>
       </c>
+      <c r="AA26" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -23340,8 +23651,11 @@
       <c r="Z27" s="4">
         <v>613604</v>
       </c>
+      <c r="AA27" s="14">
+        <v>750000</v>
+      </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -23408,8 +23722,11 @@
       <c r="Z28" s="4">
         <v>0</v>
       </c>
+      <c r="AA28" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -23476,8 +23793,11 @@
       <c r="Z29" s="4">
         <v>0</v>
       </c>
+      <c r="AA29" s="14">
+        <v>381055</v>
+      </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -23544,8 +23864,11 @@
       <c r="Z30" s="4">
         <v>0</v>
       </c>
+      <c r="AA30" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -23612,8 +23935,11 @@
       <c r="Z31" s="4">
         <v>73508</v>
       </c>
+      <c r="AA31" s="14">
+        <v>86748</v>
+      </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -23680,8 +24006,11 @@
       <c r="Z32" s="4">
         <v>145000</v>
       </c>
+      <c r="AA32" s="14">
+        <v>145000</v>
+      </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -23749,8 +24078,11 @@
       <c r="Z33" s="4">
         <v>229100</v>
       </c>
+      <c r="AA33" s="14">
+        <v>215900</v>
+      </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -23817,8 +24149,11 @@
       <c r="Z34" s="4">
         <v>0</v>
       </c>
+      <c r="AA34" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>20</v>
       </c>
@@ -23885,8 +24220,11 @@
       <c r="Z35" s="4">
         <v>50000</v>
       </c>
+      <c r="AA35" s="14">
+        <v>70000</v>
+      </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -23954,8 +24292,11 @@
       <c r="Z36" s="4">
         <v>36545</v>
       </c>
+      <c r="AA36" s="14">
+        <v>25628</v>
+      </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>22</v>
       </c>
@@ -24022,8 +24363,11 @@
       <c r="Z37" s="4">
         <v>426469</v>
       </c>
+      <c r="AA37" s="14">
+        <v>287613</v>
+      </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>23</v>
       </c>
@@ -24090,8 +24434,11 @@
       <c r="Z38" s="4">
         <v>134285</v>
       </c>
+      <c r="AA38" s="14">
+        <v>199131</v>
+      </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>24</v>
       </c>
@@ -24158,8 +24505,11 @@
       <c r="Z39" s="4">
         <v>70000</v>
       </c>
+      <c r="AA39" s="14">
+        <v>40000</v>
+      </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -24222,8 +24572,11 @@
       <c r="Z40" s="4">
         <v>200000</v>
       </c>
+      <c r="AA40" s="14">
+        <v>200000</v>
+      </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>25</v>
       </c>
@@ -24256,8 +24609,9 @@
       <c r="X41" s="4"/>
       <c r="Y41" s="4"/>
       <c r="Z41" s="4"/>
+      <c r="AA41" s="14"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -24290,8 +24644,9 @@
       <c r="X42" s="4"/>
       <c r="Y42" s="4"/>
       <c r="Z42" s="4"/>
+      <c r="AA42" s="14"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>27</v>
       </c>
@@ -24342,43 +24697,47 @@
       </c>
       <c r="Q43" s="4"/>
       <c r="R43" s="4">
-        <f t="shared" ref="R43:Y43" si="4">SUM(R27:R42)</f>
+        <f t="shared" ref="R43:Y43" si="3">SUM(R27:R42)</f>
         <v>3517790</v>
       </c>
       <c r="S43" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4144656</v>
       </c>
       <c r="T43" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4087890</v>
       </c>
       <c r="U43" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4968588</v>
       </c>
       <c r="V43" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3867886</v>
       </c>
       <c r="W43" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3965093</v>
       </c>
       <c r="X43" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4162065</v>
       </c>
       <c r="Y43" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2667086</v>
       </c>
       <c r="Z43" s="4">
-        <f t="shared" ref="Z43" si="5">SUM(Z27:Z42)</f>
+        <f>SUM(Z27:Z42)</f>
         <v>1978511</v>
       </c>
+      <c r="AA43" s="4">
+        <f>SUM(AA27:AA42)</f>
+        <v>2401075</v>
+      </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -24429,141 +24788,145 @@
       </c>
       <c r="Q44" s="4"/>
       <c r="R44" s="4">
-        <f t="shared" ref="R44:Y44" si="6">R8-R43</f>
+        <f t="shared" ref="R44:Y44" si="4">R8-R43</f>
         <v>4639367</v>
       </c>
       <c r="S44" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>4360234</v>
       </c>
       <c r="T44" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>4060058</v>
       </c>
       <c r="U44" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3165120</v>
       </c>
       <c r="V44" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3165656</v>
       </c>
       <c r="W44" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2923424</v>
       </c>
       <c r="X44" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3254925</v>
       </c>
       <c r="Y44" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3450047</v>
       </c>
       <c r="Z44" s="4">
-        <f t="shared" ref="Z44" si="7">Z8-Z43</f>
+        <f>Z8-Z43</f>
         <v>3708488</v>
       </c>
+      <c r="AA44" s="4">
+        <f>AA8-AA43</f>
+        <v>-2401075</v>
+      </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>69</v>
       </c>
       <c r="B45" s="14"/>
       <c r="C45" s="14">
-        <f t="shared" ref="C45:Y45" si="8">C2-B44</f>
+        <f t="shared" ref="C45:Y45" si="5">C2-B44</f>
         <v>0</v>
       </c>
       <c r="D45" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>-2049217</v>
       </c>
       <c r="E45" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F45" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G45" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>2832723</v>
       </c>
       <c r="H45" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I45" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J45" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>-3630553</v>
       </c>
       <c r="K45" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>3700842</v>
       </c>
       <c r="L45" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M45" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>8670</v>
       </c>
       <c r="N45" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>-4823924</v>
       </c>
       <c r="O45" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>4383876</v>
       </c>
       <c r="P45" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q45" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>-4847004</v>
       </c>
       <c r="R45" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>4689442</v>
       </c>
       <c r="S45" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T45" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U45" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V45" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>536</v>
       </c>
       <c r="W45" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>2876</v>
       </c>
       <c r="X45" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y45" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B46" s="8"/>
       <c r="C46" s="8" t="s">
         <v>58</v>
@@ -24597,7 +24960,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
@@ -24616,16 +24979,16 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
       <c r="V48" s="7"/>
     </row>
-    <row r="49" spans="12:13" x14ac:dyDescent="0.4">
+    <row r="49" spans="12:13" x14ac:dyDescent="0.45">
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="T2:Y7 Z2:Z6">
+  <conditionalFormatting sqref="T2:AA7">
     <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="min"/>
@@ -24639,7 +25002,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T28:Y40 T27:W27 Y27 T41:W42 Y41:Y42 Z27:Z42">
+  <conditionalFormatting sqref="T28:Y40 T27:W27 Y27 T41:W42 Y41:Y42 Z27:AA42">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="min"/>
@@ -24653,7 +25016,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:Y7 Z2:Z6">
+  <conditionalFormatting sqref="K2:AA7">
     <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
@@ -24667,7 +25030,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:Y22 V48 Z12:Z18">
+  <conditionalFormatting sqref="K12:Y22 V48 Z12:AA18">
     <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
@@ -24681,7 +25044,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L23:Z23">
+  <conditionalFormatting sqref="L23:AA23">
     <cfRule type="cellIs" dxfId="7" priority="10" operator="notEqual">
       <formula>L$4</formula>
     </cfRule>
@@ -24714,7 +25077,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:Y7 Z2:Z6">
+  <conditionalFormatting sqref="B2:AA7">
     <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
@@ -24748,7 +25111,7 @@
       <formula>G$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T27:Z42">
+  <conditionalFormatting sqref="T27:AA42">
     <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="min"/>
@@ -24762,7 +25125,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K27:Y31 K39:Y42 P32:Y38 K32:N38 Z27:Z42">
+  <conditionalFormatting sqref="K27:Y31 K39:Y42 P32:Y38 K32:N38 Z27:AA42">
     <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="min"/>
@@ -24790,7 +25153,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:Y31 B39:Y42 P32:Y38 B32:N38 Z27:Z42">
+  <conditionalFormatting sqref="B27:Y31 B39:Y42 P32:Y38 B32:N38 Z27:AA42">
     <cfRule type="dataBar" priority="20">
       <dataBar>
         <cfvo type="min"/>
@@ -24804,7 +25167,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12:Y22 Z12:Z18">
+  <conditionalFormatting sqref="B12:Y22 Z12:AA18">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
@@ -24846,7 +25209,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27:Z39">
+  <conditionalFormatting sqref="G27:AA39">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -24875,7 +25238,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>T2:Y7 Z2:Z6</xm:sqref>
+          <xm:sqref>T2:AA7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{95C10906-D6DC-40C8-B39A-1A569277E0FA}">
@@ -24886,7 +25249,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>T28:Y40 T27:W27 Y27 T41:W42 Y41:Y42 Z27:Z42</xm:sqref>
+          <xm:sqref>T28:Y40 T27:W27 Y27 T41:W42 Y41:Y42 Z27:AA42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{22952603-D3ED-42CD-B8C0-4D8D068DBAA9}">
@@ -24897,7 +25260,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K2:Y7 Z2:Z6</xm:sqref>
+          <xm:sqref>K2:AA7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8ED678B8-B3B5-4747-BAB9-8183D8DB12A3}">
@@ -24908,7 +25271,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K12:Y22 V48 Z12:Z18</xm:sqref>
+          <xm:sqref>K12:Y22 V48 Z12:AA18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A5F7864E-6F66-468E-9DB0-34619F72D456}">
@@ -24941,7 +25304,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B2:Y7 Z2:Z6</xm:sqref>
+          <xm:sqref>B2:AA7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A13902BB-9115-4461-B35E-BEBA3D2A05A9}">
@@ -24952,7 +25315,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>T27:Z42</xm:sqref>
+          <xm:sqref>T27:AA42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{899F8B31-4068-4E8E-9742-583C13FB6760}">
@@ -24963,7 +25326,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K27:Y31 K39:Y42 P32:Y38 K32:N38 Z27:Z42</xm:sqref>
+          <xm:sqref>K27:Y31 K39:Y42 P32:Y38 K32:N38 Z27:AA42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A53F9E0C-72CA-404F-B2A8-62221269BB4F}">
@@ -24985,7 +25348,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B27:Y31 B39:Y42 P32:Y38 B32:N38 Z27:Z42</xm:sqref>
+          <xm:sqref>B27:Y31 B39:Y42 P32:Y38 B32:N38 Z27:AA42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{58A86A78-F163-4F83-918A-E42A12845305}">
@@ -24996,7 +25359,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B12:Y22 Z12:Z18</xm:sqref>
+          <xm:sqref>B12:Y22 Z12:AA18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7CA78F61-21EB-4AF5-96FE-7AA77CA819AA}">
@@ -25029,7 +25392,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G27:Z39</xm:sqref>
+          <xm:sqref>G27:AA39</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -25045,14 +25408,14 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="7" max="7" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.3984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
@@ -25069,7 +25432,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -25096,7 +25459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -25126,7 +25489,7 @@
         <v>108780</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -25160,7 +25523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -25190,7 +25553,7 @@
         <v>74279</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -25213,7 +25576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -25236,7 +25599,7 @@
         <v>1225140</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -25259,7 +25622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -25279,7 +25642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -25298,7 +25661,7 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -25316,7 +25679,7 @@
       </c>
       <c r="O11" s="4"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -25337,7 +25700,7 @@
       </c>
       <c r="O12" s="4"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -25356,7 +25719,7 @@
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -25378,7 +25741,7 @@
         <v>1408199</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -25392,47 +25755,47 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>52</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="4">
-        <f t="shared" ref="B18:C18" si="0">SUM(B2:B17)</f>
+        <f>SUM(B2:B17)</f>
         <v>4162065</v>
       </c>
       <c r="C18" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(C2:C17)</f>
         <v>2667086</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="4" t="e">
-        <f t="shared" ref="B19" si="1">#REF!-B18</f>
+        <f>#REF!-B18</f>
         <v>#REF!</v>
       </c>
       <c r="C19" s="4" t="e">
-        <f t="shared" ref="C19" si="2">#REF!-C18</f>
+        <f>#REF!-C18</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>69</v>
       </c>
@@ -25441,7 +25804,7 @@
         <v>#REF!</v>
       </c>
       <c r="C20" s="14" t="e">
-        <f t="shared" ref="C20" si="3">#REF!-B19</f>
+        <f>#REF!-B19</f>
         <v>#REF!</v>
       </c>
     </row>
